--- a/status_classification_models/cross_validation_tuning_runs/summarize_tuning_results/sustained_smoking_cpg_tuning_results/PACE_cv_performance_metrics.xlsx
+++ b/status_classification_models/cross_validation_tuning_runs/summarize_tuning_results/sustained_smoking_cpg_tuning_results/PACE_cv_performance_metrics.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davibr/Desktop/projects/lyndsey_shorey/placenta_smoking_proj/classification/cross_validation/sustained_smoking/summarize_performance_metrics/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davibr/github_repos/placenta_smoking_index/status_classification_models/cross_validation_tuning_runs/summarize_tuning_results/sustained_smoking_cpg_tuning_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{58757CCE-0C57-3249-B828-A595096783E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02BB3466-DC39-4947-8B9E-0A22AE289E01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15620" xr2:uid="{AFEDD1D7-EE72-0847-BCBE-7C4CE5D81C59}"/>
+    <workbookView xWindow="780" yWindow="1880" windowWidth="27640" windowHeight="15620" xr2:uid="{AFEDD1D7-EE72-0847-BCBE-7C4CE5D81C59}"/>
   </bookViews>
   <sheets>
     <sheet name="PACE lasso" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="pace_cv_lasso_6_metrics" localSheetId="0">'PACE lasso'!#REF!</definedName>
     <definedName name="pace_lasso_hyper_tuning_metrics" localSheetId="0">'PACE lasso'!$A$1:$D$601</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -38,7 +39,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{9EFCA5AE-67E5-5640-BE9A-23E54D21C603}" name="pace_lasso_hyper_tuning_metrics" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/davibr/Desktop/projects/lyndsey_shorey/placenta_smoking_proj/classification/cross_validation/sustained_smoking/summarize_performance_metrics/pace_lasso_hyper_tuning_metrics.txt">
+    <textPr sourceFile="/Users/davibr/Desktop/projects/lyndsey_shorey/placenta_smoking_proj/classification/cross_validation/sustained_smoking/summarize_performance_metrics/pace_lasso_hyper_tuning_metrics.txt">
       <textFields count="5">
         <textField/>
         <textField/>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>n_CpG</t>
   </si>
@@ -76,6 +77,27 @@
   </si>
   <si>
     <t>std_roc_auc</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>mean_sensitivity</t>
+  </si>
+  <si>
+    <t>std_sensitivity</t>
+  </si>
+  <si>
+    <t>mean_specificity</t>
+  </si>
+  <si>
+    <t>std_specificity</t>
+  </si>
+  <si>
+    <t>mean_pauc</t>
+  </si>
+  <si>
+    <t>std_pauc</t>
   </si>
 </sst>
 </file>
@@ -145,7 +167,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -433,7 +455,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -441,9 +463,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99EC92D2-EBCF-2B43-9C84-3DF4D1F6C9D5}">
-  <dimension ref="A1:H201"/>
+  <dimension ref="A1:N201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -453,9 +477,13 @@
     <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
+    <col min="11" max="11" width="15.1640625" customWidth="1"/>
+    <col min="12" max="12" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -480,8 +508,26 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>10</v>
       </c>
@@ -506,8 +552,26 @@
       <c r="H2">
         <v>2.4281045302822799E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2">
+        <v>0.78333333333333299</v>
+      </c>
+      <c r="J2">
+        <v>7.4742355817076195E-2</v>
+      </c>
+      <c r="K2">
+        <v>0.94464285714285701</v>
+      </c>
+      <c r="L2">
+        <v>3.1095137825259501E-2</v>
+      </c>
+      <c r="M2">
+        <v>0.96992481203007497</v>
+      </c>
+      <c r="N2">
+        <v>1.6624685665941899E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>10</v>
       </c>
@@ -532,8 +596,26 @@
       <c r="H3">
         <v>2.3015873015873E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I3">
+        <v>0.8</v>
+      </c>
+      <c r="J3">
+        <v>6.9388866648871103E-2</v>
+      </c>
+      <c r="K3">
+        <v>0.90357142857142803</v>
+      </c>
+      <c r="L3">
+        <v>4.64285714285715E-2</v>
+      </c>
+      <c r="M3">
+        <v>0.94924812030075201</v>
+      </c>
+      <c r="N3">
+        <v>2.1713939161859E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>10</v>
       </c>
@@ -558,8 +640,26 @@
       <c r="H4">
         <v>2.6709179311824802E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4">
+        <v>0.8</v>
+      </c>
+      <c r="J4">
+        <v>6.9388866648871103E-2</v>
+      </c>
+      <c r="K4">
+        <v>0.90357142857142803</v>
+      </c>
+      <c r="L4">
+        <v>3.5335290665847202E-2</v>
+      </c>
+      <c r="M4">
+        <v>0.94266917293233099</v>
+      </c>
+      <c r="N4">
+        <v>2.25237336691964E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>10</v>
       </c>
@@ -584,8 +684,26 @@
       <c r="H5">
         <v>2.4085699849989699E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5">
+        <v>0.93333333333333302</v>
+      </c>
+      <c r="J5">
+        <v>4.4444444444444398E-2</v>
+      </c>
+      <c r="K5">
+        <v>0.91607142857142898</v>
+      </c>
+      <c r="L5">
+        <v>3.7838607322173402E-2</v>
+      </c>
+      <c r="M5">
+        <v>0.977443609022556</v>
+      </c>
+      <c r="N5">
+        <v>1.60479304196312E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>10</v>
       </c>
@@ -610,8 +728,26 @@
       <c r="H6">
         <v>1.13373370056838E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I6">
+        <v>0.88333333333333297</v>
+      </c>
+      <c r="J6">
+        <v>6.1111111111111102E-2</v>
+      </c>
+      <c r="K6">
+        <v>0.91607142857142898</v>
+      </c>
+      <c r="L6">
+        <v>3.1276915846237298E-2</v>
+      </c>
+      <c r="M6">
+        <v>0.97838345864661702</v>
+      </c>
+      <c r="N6">
+        <v>1.10362875650429E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>10</v>
       </c>
@@ -636,8 +772,26 @@
       <c r="H7">
         <v>6.4795949365448899E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I7">
+        <v>0.75</v>
+      </c>
+      <c r="J7">
+        <v>8.6958199124991795E-2</v>
+      </c>
+      <c r="K7">
+        <v>0.94464285714285701</v>
+      </c>
+      <c r="L7">
+        <v>3.1095137825259501E-2</v>
+      </c>
+      <c r="M7">
+        <v>0.92575187969924799</v>
+      </c>
+      <c r="N7">
+        <v>4.3419967654532599E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>10</v>
       </c>
@@ -662,8 +816,26 @@
       <c r="H8">
         <v>1.5718493905030401E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0.98590225563909795</v>
+      </c>
+      <c r="N8">
+        <v>9.4245670153454107E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>10</v>
       </c>
@@ -688,8 +860,26 @@
       <c r="H9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0.5</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>10</v>
       </c>
@@ -714,8 +904,26 @@
       <c r="H10">
         <v>2.8507976278828302E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I10">
+        <v>0.78333333333333299</v>
+      </c>
+      <c r="J10">
+        <v>7.4742355817076195E-2</v>
+      </c>
+      <c r="K10">
+        <v>0.91428571428571404</v>
+      </c>
+      <c r="L10">
+        <v>3.8095238095238099E-2</v>
+      </c>
+      <c r="M10">
+        <v>0.87932330827067695</v>
+      </c>
+      <c r="N10">
+        <v>5.7618088274921798E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -740,8 +948,26 @@
       <c r="H11">
         <v>2.3493270024786801E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I11">
+        <v>0.78333333333333299</v>
+      </c>
+      <c r="J11">
+        <v>7.4742355817076195E-2</v>
+      </c>
+      <c r="K11">
+        <v>0.93214285714285705</v>
+      </c>
+      <c r="L11">
+        <v>2.2712838128974899E-2</v>
+      </c>
+      <c r="M11">
+        <v>0.96428571428571397</v>
+      </c>
+      <c r="N11">
+        <v>1.6386838133611501E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -766,8 +992,26 @@
       <c r="H12">
         <v>3.8465462908103598E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I12">
+        <v>0.76666666666666705</v>
+      </c>
+      <c r="J12">
+        <v>7.9349204761587203E-2</v>
+      </c>
+      <c r="K12">
+        <v>0.88571428571428601</v>
+      </c>
+      <c r="L12">
+        <v>3.563483225499E-2</v>
+      </c>
+      <c r="M12">
+        <v>0.94736842105263197</v>
+      </c>
+      <c r="N12">
+        <v>2.5187658198298001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10</v>
       </c>
@@ -792,8 +1036,26 @@
       <c r="H13">
         <v>4.2072850112076898E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I13">
+        <v>0.75</v>
+      </c>
+      <c r="J13">
+        <v>8.6958199124991795E-2</v>
+      </c>
+      <c r="K13">
+        <v>0.94285714285714295</v>
+      </c>
+      <c r="L13">
+        <v>4.3643578047198497E-2</v>
+      </c>
+      <c r="M13" t="s">
+        <v>8</v>
+      </c>
+      <c r="N13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>10</v>
       </c>
@@ -818,8 +1080,26 @@
       <c r="H14">
         <v>4.28612762557017E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I14">
+        <v>0.7</v>
+      </c>
+      <c r="J14">
+        <v>0.11055415967851299</v>
+      </c>
+      <c r="K14">
+        <v>0.90535714285714297</v>
+      </c>
+      <c r="L14">
+        <v>3.5119047619047598E-2</v>
+      </c>
+      <c r="M14">
+        <v>0.96334586466165395</v>
+      </c>
+      <c r="N14">
+        <v>2.2955344739000402E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>10</v>
       </c>
@@ -844,8 +1124,26 @@
       <c r="H15">
         <v>1.6666666666666701E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I15">
+        <v>0.88333333333333297</v>
+      </c>
+      <c r="J15">
+        <v>6.1111111111111102E-2</v>
+      </c>
+      <c r="K15">
+        <v>0.94821428571428601</v>
+      </c>
+      <c r="L15">
+        <v>2.8228346908046101E-2</v>
+      </c>
+      <c r="M15">
+        <v>0.98026315789473695</v>
+      </c>
+      <c r="N15">
+        <v>1.4041939117177301E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>10</v>
       </c>
@@ -870,8 +1168,26 @@
       <c r="H16">
         <v>1.4953526731283201E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I16">
+        <v>0.75</v>
+      </c>
+      <c r="J16">
+        <v>7.1362403214806303E-2</v>
+      </c>
+      <c r="K16">
+        <v>0.93035714285714299</v>
+      </c>
+      <c r="L16">
+        <v>2.3275255709544199E-2</v>
+      </c>
+      <c r="M16">
+        <v>0.96428571428571397</v>
+      </c>
+      <c r="N16">
+        <v>1.6386838133611501E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>10</v>
       </c>
@@ -896,8 +1212,26 @@
       <c r="H17">
         <v>1.83424464569397E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I17">
+        <v>0.81666666666666698</v>
+      </c>
+      <c r="J17">
+        <v>7.6376261582597305E-2</v>
+      </c>
+      <c r="K17">
+        <v>0.90357142857142803</v>
+      </c>
+      <c r="L17">
+        <v>2.11623676602752E-2</v>
+      </c>
+      <c r="M17">
+        <v>0.95709586466165397</v>
+      </c>
+      <c r="N17">
+        <v>1.6243371805420299E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>10</v>
       </c>
@@ -922,8 +1256,26 @@
       <c r="H18">
         <v>1.4953526731283201E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I18">
+        <v>0.85</v>
+      </c>
+      <c r="J18">
+        <v>6.3098981620003006E-2</v>
+      </c>
+      <c r="K18">
+        <v>0.91785714285714304</v>
+      </c>
+      <c r="L18">
+        <v>3.7570794852522703E-2</v>
+      </c>
+      <c r="M18">
+        <v>0.964661654135339</v>
+      </c>
+      <c r="N18">
+        <v>1.6290244835746402E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>10</v>
       </c>
@@ -948,8 +1300,26 @@
       <c r="H19">
         <v>1.7774278638064401E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I19">
+        <v>0.76666666666666705</v>
+      </c>
+      <c r="J19">
+        <v>8.3147941928309793E-2</v>
+      </c>
+      <c r="K19">
+        <v>0.88928571428571401</v>
+      </c>
+      <c r="L19">
+        <v>2.8272243064376E-2</v>
+      </c>
+      <c r="M19">
+        <v>0.96334586466165395</v>
+      </c>
+      <c r="N19">
+        <v>1.66040100250626E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>10</v>
       </c>
@@ -974,8 +1344,26 @@
       <c r="H20">
         <v>1.8888065624982998E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I20">
+        <v>0.75</v>
+      </c>
+      <c r="J20">
+        <v>7.1362403214806303E-2</v>
+      </c>
+      <c r="K20">
+        <v>0.93214285714285705</v>
+      </c>
+      <c r="L20">
+        <v>2.2712838128974899E-2</v>
+      </c>
+      <c r="M20">
+        <v>0.95803571428571399</v>
+      </c>
+      <c r="N20">
+        <v>1.5117667772702599E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>10</v>
       </c>
@@ -1000,8 +1388,26 @@
       <c r="H21">
         <v>3.0820460633332401E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I21">
+        <v>0.75</v>
+      </c>
+      <c r="J21">
+        <v>8.6958199124991795E-2</v>
+      </c>
+      <c r="K21">
+        <v>0.90178571428571397</v>
+      </c>
+      <c r="L21">
+        <v>4.26956281914984E-2</v>
+      </c>
+      <c r="M21">
+        <v>0.92349624060150404</v>
+      </c>
+      <c r="N21">
+        <v>4.6956586123736203E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>186</v>
       </c>
@@ -1026,8 +1432,26 @@
       <c r="H22">
         <v>8.3333333333333003E-3</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I22">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="J22">
+        <v>8.6066296582387097E-2</v>
+      </c>
+      <c r="K22">
+        <v>0.95892857142857102</v>
+      </c>
+      <c r="L22">
+        <v>2.0968946373581598E-2</v>
+      </c>
+      <c r="M22">
+        <v>0.99342105263157898</v>
+      </c>
+      <c r="N22">
+        <v>6.5789473684210002E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>186</v>
       </c>
@@ -1052,8 +1476,26 @@
       <c r="H23">
         <v>9.5238095238094605E-3</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I23">
+        <v>0.86666666666666703</v>
+      </c>
+      <c r="J23">
+        <v>6.9388866648871103E-2</v>
+      </c>
+      <c r="K23">
+        <v>0.97142857142857097</v>
+      </c>
+      <c r="L23">
+        <v>1.9047619047619101E-2</v>
+      </c>
+      <c r="M23">
+        <v>0.98496240601503804</v>
+      </c>
+      <c r="N23">
+        <v>1.00250626566416E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>186</v>
       </c>
@@ -1078,8 +1520,26 @@
       <c r="H24">
         <v>4.1666666666666996E-3</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I24">
+        <v>0.93333333333333302</v>
+      </c>
+      <c r="J24">
+        <v>4.4444444444444398E-2</v>
+      </c>
+      <c r="K24">
+        <v>0.97321428571428603</v>
+      </c>
+      <c r="L24">
+        <v>1.7906677329156299E-2</v>
+      </c>
+      <c r="M24">
+        <v>0.99342105263157898</v>
+      </c>
+      <c r="N24">
+        <v>6.5789473684210002E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>186</v>
       </c>
@@ -1104,8 +1564,26 @@
       <c r="H25">
         <v>7.1428571428570897E-3</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I25">
+        <v>0.9</v>
+      </c>
+      <c r="J25">
+        <v>6.6666666666666693E-2</v>
+      </c>
+      <c r="K25">
+        <v>0.98571428571428599</v>
+      </c>
+      <c r="L25">
+        <v>1.4285714285714299E-2</v>
+      </c>
+      <c r="M25">
+        <v>0.99248120300751896</v>
+      </c>
+      <c r="N25">
+        <v>7.5187969924812E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>186</v>
       </c>
@@ -1130,8 +1608,26 @@
       <c r="H26">
         <v>4.7619047619047996E-3</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I26">
+        <v>0.93333333333333302</v>
+      </c>
+      <c r="J26">
+        <v>4.4444444444444398E-2</v>
+      </c>
+      <c r="K26">
+        <v>0.97142857142857097</v>
+      </c>
+      <c r="L26">
+        <v>1.9047619047619101E-2</v>
+      </c>
+      <c r="M26">
+        <v>0.99248120300751896</v>
+      </c>
+      <c r="N26">
+        <v>7.5187969924812E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>186</v>
       </c>
@@ -1156,8 +1652,26 @@
       <c r="H27">
         <v>1.52455338986496E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I27">
+        <v>0.81666666666666698</v>
+      </c>
+      <c r="J27">
+        <v>0.106718737290547</v>
+      </c>
+      <c r="K27">
+        <v>0.97142857142857097</v>
+      </c>
+      <c r="L27">
+        <v>1.9047619047619101E-2</v>
+      </c>
+      <c r="M27">
+        <v>0.98496240601503804</v>
+      </c>
+      <c r="N27">
+        <v>1.00250626566416E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>186</v>
       </c>
@@ -1182,8 +1696,26 @@
       <c r="H28">
         <v>1.06553345889663E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0.97838345864661702</v>
+      </c>
+      <c r="N28">
+        <v>1.10362875650429E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>186</v>
       </c>
@@ -1208,8 +1740,26 @@
       <c r="H29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0.5</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>186</v>
       </c>
@@ -1234,8 +1784,26 @@
       <c r="H30">
         <v>9.5238095238095004E-3</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I30">
+        <v>0.88333333333333297</v>
+      </c>
+      <c r="J30">
+        <v>6.1111111111111102E-2</v>
+      </c>
+      <c r="K30">
+        <v>0.98571428571428599</v>
+      </c>
+      <c r="L30">
+        <v>1.4285714285714299E-2</v>
+      </c>
+      <c r="M30">
+        <v>0.98496240601503804</v>
+      </c>
+      <c r="N30">
+        <v>1.50375939849624E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>186</v>
       </c>
@@ -1260,8 +1828,26 @@
       <c r="H31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I31">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="J31">
+        <v>5.69275042553311E-2</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>186</v>
       </c>
@@ -1286,8 +1872,26 @@
       <c r="H32">
         <v>8.5132690289384597E-3</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I32">
+        <v>0.86666666666666703</v>
+      </c>
+      <c r="J32">
+        <v>6.9388866648871103E-2</v>
+      </c>
+      <c r="K32">
+        <v>0.94464285714285701</v>
+      </c>
+      <c r="L32">
+        <v>2.2658174179374199E-2</v>
+      </c>
+      <c r="M32">
+        <v>0.97838345864661702</v>
+      </c>
+      <c r="N32">
+        <v>1.10362875650429E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>186</v>
       </c>
@@ -1312,8 +1916,26 @@
       <c r="H33">
         <v>4.1666666666666996E-3</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I33">
+        <v>0.96666666666666701</v>
+      </c>
+      <c r="J33">
+        <v>3.3333333333333298E-2</v>
+      </c>
+      <c r="K33">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="L33">
+        <v>1.6666666666666701E-2</v>
+      </c>
+      <c r="M33">
+        <v>0.99342105263157898</v>
+      </c>
+      <c r="N33">
+        <v>6.5789473684210002E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>186</v>
       </c>
@@ -1338,8 +1960,26 @@
       <c r="H34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I34">
+        <v>0.93333333333333302</v>
+      </c>
+      <c r="J34">
+        <v>4.4444444444444398E-2</v>
+      </c>
+      <c r="K34">
+        <v>0.98571428571428599</v>
+      </c>
+      <c r="L34">
+        <v>1.4285714285714299E-2</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>186</v>
       </c>
@@ -1364,8 +2004,26 @@
       <c r="H35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I35">
+        <v>0.81666666666666698</v>
+      </c>
+      <c r="J35">
+        <v>7.6376261582597305E-2</v>
+      </c>
+      <c r="K35">
+        <v>0.98571428571428599</v>
+      </c>
+      <c r="L35">
+        <v>1.4285714285714299E-2</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>186</v>
       </c>
@@ -1390,8 +2048,26 @@
       <c r="H36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I36">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="J36">
+        <v>7.02728368926306E-2</v>
+      </c>
+      <c r="K36">
+        <v>0.98571428571428599</v>
+      </c>
+      <c r="L36">
+        <v>1.4285714285714299E-2</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>186</v>
       </c>
@@ -1416,8 +2092,26 @@
       <c r="H37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I37">
+        <v>0.95</v>
+      </c>
+      <c r="J37">
+        <v>0.05</v>
+      </c>
+      <c r="K37">
+        <v>0.98571428571428599</v>
+      </c>
+      <c r="L37">
+        <v>1.4285714285714299E-2</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>186</v>
       </c>
@@ -1442,8 +2136,26 @@
       <c r="H38">
         <v>9.9622144528834708E-3</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I38">
+        <v>0.96666666666666701</v>
+      </c>
+      <c r="J38">
+        <v>3.3333333333333298E-2</v>
+      </c>
+      <c r="K38">
+        <v>0.95892857142857102</v>
+      </c>
+      <c r="L38">
+        <v>2.0968946373581598E-2</v>
+      </c>
+      <c r="M38">
+        <v>0.98590225563909795</v>
+      </c>
+      <c r="N38">
+        <v>9.4245670153454107E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>186</v>
       </c>
@@ -1468,8 +2180,26 @@
       <c r="H39">
         <v>7.1428571428570897E-3</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I39">
+        <v>0.88333333333333297</v>
+      </c>
+      <c r="J39">
+        <v>6.1111111111111102E-2</v>
+      </c>
+      <c r="K39">
+        <v>0.95714285714285696</v>
+      </c>
+      <c r="L39">
+        <v>3.04910677972993E-2</v>
+      </c>
+      <c r="M39">
+        <v>0.99248120300751896</v>
+      </c>
+      <c r="N39">
+        <v>7.5187969924812E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>186</v>
       </c>
@@ -1494,8 +2224,26 @@
       <c r="H40">
         <v>4.1666666666666996E-3</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I40">
+        <v>0.86666666666666703</v>
+      </c>
+      <c r="J40">
+        <v>7.3702773119008899E-2</v>
+      </c>
+      <c r="K40">
+        <v>0.98750000000000004</v>
+      </c>
+      <c r="L40">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="M40">
+        <v>0.99342105263157898</v>
+      </c>
+      <c r="N40">
+        <v>6.5789473684210002E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>186</v>
       </c>
@@ -1520,8 +2268,26 @@
       <c r="H41">
         <v>1.4547859349066199E-2</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I41">
+        <v>0.81666666666666698</v>
+      </c>
+      <c r="J41">
+        <v>7.6376261582597305E-2</v>
+      </c>
+      <c r="K41">
+        <v>0.94642857142857095</v>
+      </c>
+      <c r="L41">
+        <v>3.0583887092059898E-2</v>
+      </c>
+      <c r="M41">
+        <v>0.977443609022556</v>
+      </c>
+      <c r="N41">
+        <v>1.60479304196312E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>274</v>
       </c>
@@ -1546,8 +2312,26 @@
       <c r="H42">
         <v>7.1428571428570897E-3</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I42">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="J42">
+        <v>7.02728368926306E-2</v>
+      </c>
+      <c r="K42">
+        <v>0.97321428571428603</v>
+      </c>
+      <c r="L42">
+        <v>1.7906677329156299E-2</v>
+      </c>
+      <c r="M42">
+        <v>0.99248120300751896</v>
+      </c>
+      <c r="N42">
+        <v>7.5187969924812E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>274</v>
       </c>
@@ -1572,8 +2356,26 @@
       <c r="H43">
         <v>2.3809523809523801E-2</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I43">
+        <v>0.86666666666666703</v>
+      </c>
+      <c r="J43">
+        <v>6.9388866648871103E-2</v>
+      </c>
+      <c r="K43">
+        <v>0.97142857142857097</v>
+      </c>
+      <c r="L43">
+        <v>1.9047619047619101E-2</v>
+      </c>
+      <c r="M43">
+        <v>0.977443609022556</v>
+      </c>
+      <c r="N43">
+        <v>2.2556390977443601E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>274</v>
       </c>
@@ -1598,8 +2400,26 @@
       <c r="H44">
         <v>1.4285714285714299E-2</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I44">
+        <v>0.86666666666666703</v>
+      </c>
+      <c r="J44">
+        <v>6.9388866648871103E-2</v>
+      </c>
+      <c r="K44">
+        <v>0.98571428571428599</v>
+      </c>
+      <c r="L44">
+        <v>1.4285714285714299E-2</v>
+      </c>
+      <c r="M44">
+        <v>0.99248120300751896</v>
+      </c>
+      <c r="N44">
+        <v>7.5187969924812E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>274</v>
       </c>
@@ -1624,8 +2444,26 @@
       <c r="H45">
         <v>7.1428571428570897E-3</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I45">
+        <v>0.88333333333333297</v>
+      </c>
+      <c r="J45">
+        <v>6.1111111111111102E-2</v>
+      </c>
+      <c r="K45">
+        <v>0.97142857142857097</v>
+      </c>
+      <c r="L45">
+        <v>1.9047619047619101E-2</v>
+      </c>
+      <c r="M45">
+        <v>0.99248120300751896</v>
+      </c>
+      <c r="N45">
+        <v>7.5187969924812E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>274</v>
       </c>
@@ -1650,8 +2488,26 @@
       <c r="H46">
         <v>7.1428571428570897E-3</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I46">
+        <v>0.86666666666666703</v>
+      </c>
+      <c r="J46">
+        <v>6.9388866648871103E-2</v>
+      </c>
+      <c r="K46">
+        <v>0.95892857142857102</v>
+      </c>
+      <c r="L46">
+        <v>2.0968946373581598E-2</v>
+      </c>
+      <c r="M46">
+        <v>0.99248120300751896</v>
+      </c>
+      <c r="N46">
+        <v>7.5187969924812E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>274</v>
       </c>
@@ -1676,8 +2532,26 @@
       <c r="H47">
         <v>9.5238095238094605E-3</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I47">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="J47">
+        <v>7.02728368926306E-2</v>
+      </c>
+      <c r="K47">
+        <v>0.97142857142857097</v>
+      </c>
+      <c r="L47">
+        <v>1.9047619047619101E-2</v>
+      </c>
+      <c r="M47">
+        <v>0.98496240601503804</v>
+      </c>
+      <c r="N47">
+        <v>1.00250626566416E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>274</v>
       </c>
@@ -1702,8 +2576,26 @@
       <c r="H48">
         <v>2.2112113834531801E-2</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0.97838345864661702</v>
+      </c>
+      <c r="N48">
+        <v>1.57298122940265E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>274</v>
       </c>
@@ -1728,8 +2620,26 @@
       <c r="H49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0.5</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>274</v>
       </c>
@@ -1754,8 +2664,26 @@
       <c r="H50">
         <v>7.8592469525151903E-3</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I50">
+        <v>0.9</v>
+      </c>
+      <c r="J50">
+        <v>5.0917507721731502E-2</v>
+      </c>
+      <c r="K50">
+        <v>0.97321428571428603</v>
+      </c>
+      <c r="L50">
+        <v>1.7906677329156299E-2</v>
+      </c>
+      <c r="M50">
+        <v>0.98590225563909795</v>
+      </c>
+      <c r="N50">
+        <v>9.4245670153454107E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>274</v>
       </c>
@@ -1780,8 +2708,26 @@
       <c r="H51">
         <v>5.96889244305216E-3</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I51">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="J51">
+        <v>7.02728368926306E-2</v>
+      </c>
+      <c r="K51">
+        <v>0.95892857142857102</v>
+      </c>
+      <c r="L51">
+        <v>2.0968946373581598E-2</v>
+      </c>
+      <c r="M51">
+        <v>0.98590225563909795</v>
+      </c>
+      <c r="N51">
+        <v>9.4245670153454107E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>274</v>
       </c>
@@ -1806,8 +2752,26 @@
       <c r="H52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I52">
+        <v>0.86666666666666703</v>
+      </c>
+      <c r="J52">
+        <v>6.9388866648871103E-2</v>
+      </c>
+      <c r="K52">
+        <v>0.98571428571428599</v>
+      </c>
+      <c r="L52">
+        <v>1.4285714285714299E-2</v>
+      </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>274</v>
       </c>
@@ -1832,8 +2796,26 @@
       <c r="H53">
         <v>7.1428571428570897E-3</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I53">
+        <v>0.9</v>
+      </c>
+      <c r="J53">
+        <v>5.0917507721731502E-2</v>
+      </c>
+      <c r="K53">
+        <v>0.97142857142857097</v>
+      </c>
+      <c r="L53">
+        <v>1.9047619047619101E-2</v>
+      </c>
+      <c r="M53">
+        <v>0.99248120300751896</v>
+      </c>
+      <c r="N53">
+        <v>7.5187969924812E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>274</v>
       </c>
@@ -1858,8 +2840,26 @@
       <c r="H54">
         <v>7.8592469525151903E-3</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I54">
+        <v>0.86666666666666703</v>
+      </c>
+      <c r="J54">
+        <v>6.9388866648871103E-2</v>
+      </c>
+      <c r="K54">
+        <v>0.97321428571428603</v>
+      </c>
+      <c r="L54">
+        <v>1.7906677329156299E-2</v>
+      </c>
+      <c r="M54">
+        <v>0.98590225563909795</v>
+      </c>
+      <c r="N54">
+        <v>9.4245670153454107E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>274</v>
       </c>
@@ -1884,8 +2884,26 @@
       <c r="H55">
         <v>4.7619047619047996E-3</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I55">
+        <v>0.88333333333333297</v>
+      </c>
+      <c r="J55">
+        <v>6.1111111111111102E-2</v>
+      </c>
+      <c r="K55">
+        <v>0.95892857142857102</v>
+      </c>
+      <c r="L55">
+        <v>2.0968946373581598E-2</v>
+      </c>
+      <c r="M55">
+        <v>0.99248120300751896</v>
+      </c>
+      <c r="N55">
+        <v>7.5187969924812E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>274</v>
       </c>
@@ -1910,8 +2928,26 @@
       <c r="H56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I56">
+        <v>0.86666666666666703</v>
+      </c>
+      <c r="J56">
+        <v>6.9388866648871103E-2</v>
+      </c>
+      <c r="K56">
+        <v>0.97142857142857097</v>
+      </c>
+      <c r="L56">
+        <v>1.9047619047619101E-2</v>
+      </c>
+      <c r="M56">
+        <v>1</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>274</v>
       </c>
@@ -1936,8 +2972,26 @@
       <c r="H57">
         <v>9.7384057077841008E-3</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I57">
+        <v>0.88333333333333297</v>
+      </c>
+      <c r="J57">
+        <v>6.1111111111111102E-2</v>
+      </c>
+      <c r="K57">
+        <v>0.97142857142857097</v>
+      </c>
+      <c r="L57">
+        <v>1.9047619047619101E-2</v>
+      </c>
+      <c r="M57">
+        <v>0.97838345864661702</v>
+      </c>
+      <c r="N57">
+        <v>1.10362875650429E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>274</v>
       </c>
@@ -1962,8 +3016,26 @@
       <c r="H58">
         <v>4.7619047619047996E-3</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I58">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="J58">
+        <v>5.69275042553311E-2</v>
+      </c>
+      <c r="K58">
+        <v>0.97142857142857097</v>
+      </c>
+      <c r="L58">
+        <v>1.9047619047619101E-2</v>
+      </c>
+      <c r="M58">
+        <v>0.99248120300751896</v>
+      </c>
+      <c r="N58">
+        <v>7.5187969924812E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>274</v>
       </c>
@@ -1988,8 +3060,26 @@
       <c r="H59">
         <v>4.1666666666666996E-3</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I59">
+        <v>0.9</v>
+      </c>
+      <c r="J59">
+        <v>7.1145824860364998E-2</v>
+      </c>
+      <c r="K59">
+        <v>0.95892857142857102</v>
+      </c>
+      <c r="L59">
+        <v>2.0968946373581598E-2</v>
+      </c>
+      <c r="M59">
+        <v>0.99342105263157898</v>
+      </c>
+      <c r="N59">
+        <v>6.5789473684210002E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>274</v>
       </c>
@@ -2014,8 +3104,26 @@
       <c r="H60">
         <v>8.5132690289384597E-3</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I60">
+        <v>0.85</v>
+      </c>
+      <c r="J60">
+        <v>6.3098981620003006E-2</v>
+      </c>
+      <c r="K60">
+        <v>0.98571428571428599</v>
+      </c>
+      <c r="L60">
+        <v>1.4285714285714299E-2</v>
+      </c>
+      <c r="M60">
+        <v>0.97838345864661702</v>
+      </c>
+      <c r="N60">
+        <v>1.10362875650429E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>274</v>
       </c>
@@ -2040,8 +3148,26 @@
       <c r="H61">
         <v>9.9622144528834708E-3</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I61">
+        <v>0.88333333333333297</v>
+      </c>
+      <c r="J61">
+        <v>6.1111111111111102E-2</v>
+      </c>
+      <c r="K61">
+        <v>0.97142857142857097</v>
+      </c>
+      <c r="L61">
+        <v>1.9047619047619101E-2</v>
+      </c>
+      <c r="M61">
+        <v>0.98590225563909795</v>
+      </c>
+      <c r="N61">
+        <v>9.4245670153454107E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>362</v>
       </c>
@@ -2066,8 +3192,26 @@
       <c r="H62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I62">
+        <v>0.93333333333333302</v>
+      </c>
+      <c r="J62">
+        <v>4.4444444444444398E-2</v>
+      </c>
+      <c r="K62">
+        <v>0.95714285714285696</v>
+      </c>
+      <c r="L62">
+        <v>4.2857142857142899E-2</v>
+      </c>
+      <c r="M62">
+        <v>1</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>362</v>
       </c>
@@ -2092,8 +3236,26 @@
       <c r="H63">
         <v>7.1428571428570897E-3</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I63">
+        <v>0.86666666666666703</v>
+      </c>
+      <c r="J63">
+        <v>6.9388866648871103E-2</v>
+      </c>
+      <c r="K63">
+        <v>0.97142857142857097</v>
+      </c>
+      <c r="L63">
+        <v>1.9047619047619101E-2</v>
+      </c>
+      <c r="M63">
+        <v>0.99248120300751896</v>
+      </c>
+      <c r="N63">
+        <v>7.5187969924812E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>362</v>
       </c>
@@ -2118,8 +3280,26 @@
       <c r="H64">
         <v>7.1428571428570897E-3</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I64">
+        <v>0.85</v>
+      </c>
+      <c r="J64">
+        <v>7.6376261582597305E-2</v>
+      </c>
+      <c r="K64">
+        <v>0.98571428571428599</v>
+      </c>
+      <c r="L64">
+        <v>1.4285714285714299E-2</v>
+      </c>
+      <c r="M64">
+        <v>0.99248120300751896</v>
+      </c>
+      <c r="N64">
+        <v>7.5187969924812E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>362</v>
       </c>
@@ -2144,8 +3324,26 @@
       <c r="H65">
         <v>7.1428571428570897E-3</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I65">
+        <v>0.86666666666666703</v>
+      </c>
+      <c r="J65">
+        <v>6.9388866648871103E-2</v>
+      </c>
+      <c r="K65">
+        <v>0.97142857142857097</v>
+      </c>
+      <c r="L65">
+        <v>1.9047619047619101E-2</v>
+      </c>
+      <c r="M65">
+        <v>0.99248120300751896</v>
+      </c>
+      <c r="N65">
+        <v>7.5187969924812E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>362</v>
       </c>
@@ -2170,8 +3368,26 @@
       <c r="H66">
         <v>1.52455338986496E-2</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I66">
+        <v>0.95</v>
+      </c>
+      <c r="J66">
+        <v>0.05</v>
+      </c>
+      <c r="K66">
+        <v>0.97142857142857097</v>
+      </c>
+      <c r="L66">
+        <v>1.9047619047619101E-2</v>
+      </c>
+      <c r="M66">
+        <v>0.977443609022556</v>
+      </c>
+      <c r="N66">
+        <v>1.60479304196312E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>362</v>
       </c>
@@ -2196,8 +3412,26 @@
       <c r="H67">
         <v>2.2102319666575401E-2</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I67">
+        <v>0.8</v>
+      </c>
+      <c r="J67">
+        <v>6.9388866648871103E-2</v>
+      </c>
+      <c r="K67">
+        <v>0.94464285714285701</v>
+      </c>
+      <c r="L67">
+        <v>2.2658174179374199E-2</v>
+      </c>
+      <c r="M67">
+        <v>0.96334586466165395</v>
+      </c>
+      <c r="N67">
+        <v>1.66040100250626E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>362</v>
       </c>
@@ -2222,8 +3456,26 @@
       <c r="H68">
         <v>1.3690476190476201E-2</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0.97932330827067704</v>
+      </c>
+      <c r="N68">
+        <v>1.44110275689223E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>362</v>
       </c>
@@ -2248,8 +3500,26 @@
       <c r="H69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>1</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0.5</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>362</v>
       </c>
@@ -2274,8 +3544,26 @@
       <c r="H70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I70">
+        <v>0.86666666666666703</v>
+      </c>
+      <c r="J70">
+        <v>6.9388866648871103E-2</v>
+      </c>
+      <c r="K70">
+        <v>0.98571428571428599</v>
+      </c>
+      <c r="L70">
+        <v>1.4285714285714299E-2</v>
+      </c>
+      <c r="M70">
+        <v>1</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>362</v>
       </c>
@@ -2300,8 +3588,26 @@
       <c r="H71">
         <v>5.96889244305216E-3</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I71">
+        <v>0.86666666666666703</v>
+      </c>
+      <c r="J71">
+        <v>5.4433105395181702E-2</v>
+      </c>
+      <c r="K71">
+        <v>0.97321428571428603</v>
+      </c>
+      <c r="L71">
+        <v>1.7906677329156299E-2</v>
+      </c>
+      <c r="M71">
+        <v>0.98590225563909795</v>
+      </c>
+      <c r="N71">
+        <v>9.4245670153454107E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>362</v>
       </c>
@@ -2326,8 +3632,26 @@
       <c r="H72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I72">
+        <v>0.95</v>
+      </c>
+      <c r="J72">
+        <v>0.05</v>
+      </c>
+      <c r="K72">
+        <v>0.96250000000000002</v>
+      </c>
+      <c r="L72">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="M72">
+        <v>1</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>362</v>
       </c>
@@ -2352,8 +3676,26 @@
       <c r="H73">
         <v>7.1428571428570897E-3</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I73">
+        <v>0.88333333333333297</v>
+      </c>
+      <c r="J73">
+        <v>6.1111111111111102E-2</v>
+      </c>
+      <c r="K73">
+        <v>0.95714285714285696</v>
+      </c>
+      <c r="L73">
+        <v>2.1821789023599301E-2</v>
+      </c>
+      <c r="M73">
+        <v>0.99248120300751896</v>
+      </c>
+      <c r="N73">
+        <v>7.5187969924812E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>362</v>
       </c>
@@ -2378,8 +3720,26 @@
       <c r="H74">
         <v>2.1428571428571401E-2</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I74">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="J74">
+        <v>5.69275042553311E-2</v>
+      </c>
+      <c r="K74">
+        <v>0.95714285714285696</v>
+      </c>
+      <c r="L74">
+        <v>4.2857142857142899E-2</v>
+      </c>
+      <c r="M74">
+        <v>0.977443609022556</v>
+      </c>
+      <c r="N74">
+        <v>2.2556390977443601E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>362</v>
       </c>
@@ -2404,8 +3764,26 @@
       <c r="H75">
         <v>6.3492063492064004E-3</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I75">
+        <v>0.93333333333333302</v>
+      </c>
+      <c r="J75">
+        <v>4.4444444444444398E-2</v>
+      </c>
+      <c r="K75">
+        <v>0.97142857142857097</v>
+      </c>
+      <c r="L75">
+        <v>1.9047619047619101E-2</v>
+      </c>
+      <c r="M75">
+        <v>0.98496240601503804</v>
+      </c>
+      <c r="N75">
+        <v>1.00250626566416E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>362</v>
       </c>
@@ -2430,8 +3808,26 @@
       <c r="H76">
         <v>8.1325006079044204E-3</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I76">
+        <v>0.86666666666666703</v>
+      </c>
+      <c r="J76">
+        <v>6.9388866648871103E-2</v>
+      </c>
+      <c r="K76">
+        <v>0.97142857142857097</v>
+      </c>
+      <c r="L76">
+        <v>1.9047619047619101E-2</v>
+      </c>
+      <c r="M76">
+        <v>0.98496240601503804</v>
+      </c>
+      <c r="N76">
+        <v>1.00250626566416E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>362</v>
       </c>
@@ -2456,8 +3852,26 @@
       <c r="H77">
         <v>4.1666666666666996E-3</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I77">
+        <v>0.93333333333333302</v>
+      </c>
+      <c r="J77">
+        <v>4.4444444444444398E-2</v>
+      </c>
+      <c r="K77">
+        <v>0.97321428571428603</v>
+      </c>
+      <c r="L77">
+        <v>1.7906677329156299E-2</v>
+      </c>
+      <c r="M77">
+        <v>0.99342105263157898</v>
+      </c>
+      <c r="N77">
+        <v>6.5789473684210002E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>362</v>
       </c>
@@ -2482,8 +3896,26 @@
       <c r="H78">
         <v>8.1325006079044204E-3</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I78">
+        <v>0.88333333333333297</v>
+      </c>
+      <c r="J78">
+        <v>6.1111111111111102E-2</v>
+      </c>
+      <c r="K78">
+        <v>0.97142857142857097</v>
+      </c>
+      <c r="L78">
+        <v>1.9047619047619101E-2</v>
+      </c>
+      <c r="M78">
+        <v>0.98496240601503804</v>
+      </c>
+      <c r="N78">
+        <v>1.00250626566416E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>362</v>
       </c>
@@ -2508,8 +3940,26 @@
       <c r="H79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I79">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="J79">
+        <v>5.69275042553311E-2</v>
+      </c>
+      <c r="K79">
+        <v>0.97142857142857097</v>
+      </c>
+      <c r="L79">
+        <v>1.9047619047619101E-2</v>
+      </c>
+      <c r="M79">
+        <v>1</v>
+      </c>
+      <c r="N79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>362</v>
       </c>
@@ -2534,8 +3984,26 @@
       <c r="H80">
         <v>9.9622144528834708E-3</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I80">
+        <v>0.85</v>
+      </c>
+      <c r="J80">
+        <v>6.3098981620003006E-2</v>
+      </c>
+      <c r="K80">
+        <v>0.97321428571428603</v>
+      </c>
+      <c r="L80">
+        <v>1.7906677329156299E-2</v>
+      </c>
+      <c r="M80">
+        <v>0.98590225563909795</v>
+      </c>
+      <c r="N80">
+        <v>9.4245670153454107E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>362</v>
       </c>
@@ -2560,8 +4028,26 @@
       <c r="H81">
         <v>8.3333333333333003E-3</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I81">
+        <v>0.88333333333333297</v>
+      </c>
+      <c r="J81">
+        <v>6.1111111111111102E-2</v>
+      </c>
+      <c r="K81">
+        <v>0.96071428571428596</v>
+      </c>
+      <c r="L81">
+        <v>2.7380952380952402E-2</v>
+      </c>
+      <c r="M81">
+        <v>0.98684210526315796</v>
+      </c>
+      <c r="N81">
+        <v>1.3157894736842099E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>450</v>
       </c>
@@ -2586,8 +4072,26 @@
       <c r="H82">
         <v>9.9126952355529704E-3</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I82">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="J82">
+        <v>7.02728368926306E-2</v>
+      </c>
+      <c r="K82">
+        <v>0.94285714285714295</v>
+      </c>
+      <c r="L82">
+        <v>2.3328473740792201E-2</v>
+      </c>
+      <c r="M82">
+        <v>0.977443609022556</v>
+      </c>
+      <c r="N82">
+        <v>1.14851521176838E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>450</v>
       </c>
@@ -2612,8 +4116,26 @@
       <c r="H83">
         <v>1.03555463100792E-2</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I83">
+        <v>0.81666666666666698</v>
+      </c>
+      <c r="J83">
+        <v>7.6376261582597305E-2</v>
+      </c>
+      <c r="K83">
+        <v>0.95892857142857102</v>
+      </c>
+      <c r="L83">
+        <v>2.0968946373581598E-2</v>
+      </c>
+      <c r="M83">
+        <v>0.97932330827067704</v>
+      </c>
+      <c r="N83">
+        <v>1.44110275689223E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>450</v>
       </c>
@@ -2638,8 +4160,26 @@
       <c r="H84">
         <v>9.5238095238094605E-3</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I84">
+        <v>0.88333333333333297</v>
+      </c>
+      <c r="J84">
+        <v>6.1111111111111102E-2</v>
+      </c>
+      <c r="K84">
+        <v>0.97142857142857097</v>
+      </c>
+      <c r="L84">
+        <v>1.9047619047619101E-2</v>
+      </c>
+      <c r="M84">
+        <v>0.98496240601503804</v>
+      </c>
+      <c r="N84">
+        <v>1.00250626566416E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>450</v>
       </c>
@@ -2664,8 +4204,26 @@
       <c r="H85">
         <v>9.5238095238095004E-3</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I85">
+        <v>0.85</v>
+      </c>
+      <c r="J85">
+        <v>7.6376261582597305E-2</v>
+      </c>
+      <c r="K85">
+        <v>0.95714285714285696</v>
+      </c>
+      <c r="L85">
+        <v>3.04910677972993E-2</v>
+      </c>
+      <c r="M85">
+        <v>0.98496240601503804</v>
+      </c>
+      <c r="N85">
+        <v>1.50375939849624E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>450</v>
       </c>
@@ -2690,8 +4248,26 @@
       <c r="H86">
         <v>7.1428571428570897E-3</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I86">
+        <v>0.85</v>
+      </c>
+      <c r="J86">
+        <v>7.6376261582597305E-2</v>
+      </c>
+      <c r="K86">
+        <v>0.97142857142857097</v>
+      </c>
+      <c r="L86">
+        <v>1.9047619047619101E-2</v>
+      </c>
+      <c r="M86">
+        <v>0.99248120300751896</v>
+      </c>
+      <c r="N86">
+        <v>7.5187969924812E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>450</v>
       </c>
@@ -2716,8 +4292,26 @@
       <c r="H87">
         <v>5.96889244305216E-3</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I87">
+        <v>0.81666666666666698</v>
+      </c>
+      <c r="J87">
+        <v>0.106718737290547</v>
+      </c>
+      <c r="K87">
+        <v>0.97321428571428603</v>
+      </c>
+      <c r="L87">
+        <v>1.7906677329156299E-2</v>
+      </c>
+      <c r="M87">
+        <v>0.98590225563909795</v>
+      </c>
+      <c r="N87">
+        <v>9.4245670153454107E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>450</v>
       </c>
@@ -2742,8 +4336,26 @@
       <c r="H88">
         <v>1.12519419672681E-2</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>1</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <v>0.98496240601503804</v>
+      </c>
+      <c r="N88">
+        <v>1.00250626566416E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>450</v>
       </c>
@@ -2768,8 +4380,26 @@
       <c r="H89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>1</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <v>0.5</v>
+      </c>
+      <c r="N89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>450</v>
       </c>
@@ -2794,8 +4424,26 @@
       <c r="H90">
         <v>7.8592469525151903E-3</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I90">
+        <v>0.88333333333333297</v>
+      </c>
+      <c r="J90">
+        <v>6.1111111111111102E-2</v>
+      </c>
+      <c r="K90">
+        <v>0.97321428571428603</v>
+      </c>
+      <c r="L90">
+        <v>1.7906677329156299E-2</v>
+      </c>
+      <c r="M90">
+        <v>0.98590225563909795</v>
+      </c>
+      <c r="N90">
+        <v>9.4245670153454107E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>450</v>
       </c>
@@ -2820,8 +4468,26 @@
       <c r="H91">
         <v>7.1428571428570897E-3</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I91">
+        <v>0.9</v>
+      </c>
+      <c r="J91">
+        <v>6.6666666666666693E-2</v>
+      </c>
+      <c r="K91">
+        <v>0.97142857142857097</v>
+      </c>
+      <c r="L91">
+        <v>1.9047619047619101E-2</v>
+      </c>
+      <c r="M91">
+        <v>0.99248120300751896</v>
+      </c>
+      <c r="N91">
+        <v>7.5187969924812E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>450</v>
       </c>
@@ -2846,8 +4512,26 @@
       <c r="H92">
         <v>8.1325006079044204E-3</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I92">
+        <v>0.88333333333333297</v>
+      </c>
+      <c r="J92">
+        <v>6.1111111111111102E-2</v>
+      </c>
+      <c r="K92">
+        <v>0.95714285714285696</v>
+      </c>
+      <c r="L92">
+        <v>2.1821789023599301E-2</v>
+      </c>
+      <c r="M92">
+        <v>0.98496240601503804</v>
+      </c>
+      <c r="N92">
+        <v>1.00250626566416E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>450</v>
       </c>
@@ -2872,8 +4556,26 @@
       <c r="H93">
         <v>7.1428571428570897E-3</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I93">
+        <v>0.9</v>
+      </c>
+      <c r="J93">
+        <v>6.6666666666666693E-2</v>
+      </c>
+      <c r="K93">
+        <v>0.95714285714285696</v>
+      </c>
+      <c r="L93">
+        <v>2.1821789023599301E-2</v>
+      </c>
+      <c r="M93">
+        <v>0.99248120300751896</v>
+      </c>
+      <c r="N93">
+        <v>7.5187969924812E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>450</v>
       </c>
@@ -2898,8 +4600,26 @@
       <c r="H94">
         <v>8.3333333333333003E-3</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I94">
+        <v>0.93333333333333302</v>
+      </c>
+      <c r="J94">
+        <v>4.4444444444444398E-2</v>
+      </c>
+      <c r="K94">
+        <v>0.96071428571428596</v>
+      </c>
+      <c r="L94">
+        <v>2.7380952380952402E-2</v>
+      </c>
+      <c r="M94">
+        <v>0.98684210526315796</v>
+      </c>
+      <c r="N94">
+        <v>1.3157894736842099E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>450</v>
       </c>
@@ -2924,8 +4644,26 @@
       <c r="H95">
         <v>2.1267212879533402E-2</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I95">
+        <v>0.9</v>
+      </c>
+      <c r="J95">
+        <v>6.6666666666666693E-2</v>
+      </c>
+      <c r="K95">
+        <v>0.94464285714285701</v>
+      </c>
+      <c r="L95">
+        <v>3.1095137825259501E-2</v>
+      </c>
+      <c r="M95">
+        <v>0.96334586466165395</v>
+      </c>
+      <c r="N95">
+        <v>2.2955344739000402E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>450</v>
       </c>
@@ -2950,8 +4688,26 @@
       <c r="H96">
         <v>8.1325006079044204E-3</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I96">
+        <v>0.85</v>
+      </c>
+      <c r="J96">
+        <v>6.3098981620003006E-2</v>
+      </c>
+      <c r="K96">
+        <v>0.95714285714285696</v>
+      </c>
+      <c r="L96">
+        <v>2.1821789023599301E-2</v>
+      </c>
+      <c r="M96">
+        <v>0.98496240601503804</v>
+      </c>
+      <c r="N96">
+        <v>1.00250626566416E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>450</v>
       </c>
@@ -2976,8 +4732,26 @@
       <c r="H97">
         <v>7.1428571428570897E-3</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I97">
+        <v>0.9</v>
+      </c>
+      <c r="J97">
+        <v>6.6666666666666693E-2</v>
+      </c>
+      <c r="K97">
+        <v>0.97142857142857097</v>
+      </c>
+      <c r="L97">
+        <v>1.9047619047619101E-2</v>
+      </c>
+      <c r="M97">
+        <v>0.99248120300751896</v>
+      </c>
+      <c r="N97">
+        <v>7.5187969924812E-3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>450</v>
       </c>
@@ -3002,8 +4776,26 @@
       <c r="H98">
         <v>7.1428571428570897E-3</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I98">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="J98">
+        <v>5.69275042553311E-2</v>
+      </c>
+      <c r="K98">
+        <v>0.95714285714285696</v>
+      </c>
+      <c r="L98">
+        <v>4.2857142857142899E-2</v>
+      </c>
+      <c r="M98">
+        <v>0.99248120300751896</v>
+      </c>
+      <c r="N98">
+        <v>7.5187969924812E-3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>450</v>
       </c>
@@ -3028,8 +4820,26 @@
       <c r="H99">
         <v>5.96889244305216E-3</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I99">
+        <v>0.88333333333333297</v>
+      </c>
+      <c r="J99">
+        <v>6.1111111111111102E-2</v>
+      </c>
+      <c r="K99">
+        <v>0.97321428571428603</v>
+      </c>
+      <c r="L99">
+        <v>1.7906677329156299E-2</v>
+      </c>
+      <c r="M99">
+        <v>0.98590225563909795</v>
+      </c>
+      <c r="N99">
+        <v>9.4245670153454107E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>450</v>
       </c>
@@ -3054,8 +4864,26 @@
       <c r="H100">
         <v>1.4285714285714299E-2</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I100">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="J100">
+        <v>5.69275042553311E-2</v>
+      </c>
+      <c r="K100">
+        <v>0.95714285714285696</v>
+      </c>
+      <c r="L100">
+        <v>3.04910677972993E-2</v>
+      </c>
+      <c r="M100">
+        <v>0.99248120300751896</v>
+      </c>
+      <c r="N100">
+        <v>7.5187969924812E-3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>450</v>
       </c>
@@ -3080,8 +4908,26 @@
       <c r="H101">
         <v>9.1269841269841206E-3</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I101">
+        <v>0.88333333333333297</v>
+      </c>
+      <c r="J101">
+        <v>6.1111111111111102E-2</v>
+      </c>
+      <c r="K101">
+        <v>0.96071428571428596</v>
+      </c>
+      <c r="L101">
+        <v>2.7380952380952402E-2</v>
+      </c>
+      <c r="M101">
+        <v>0.97932330827067704</v>
+      </c>
+      <c r="N101">
+        <v>1.44110275689223E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>538</v>
       </c>
@@ -3106,8 +4952,26 @@
       <c r="H102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I102">
+        <v>0.86666666666666703</v>
+      </c>
+      <c r="J102">
+        <v>6.9388866648871103E-2</v>
+      </c>
+      <c r="K102">
+        <v>0.97321428571428603</v>
+      </c>
+      <c r="L102">
+        <v>1.7906677329156299E-2</v>
+      </c>
+      <c r="M102">
+        <v>1</v>
+      </c>
+      <c r="N102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>538</v>
       </c>
@@ -3132,8 +4996,26 @@
       <c r="H103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I103">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="J103">
+        <v>7.02728368926306E-2</v>
+      </c>
+      <c r="K103">
+        <v>0.97321428571428603</v>
+      </c>
+      <c r="L103">
+        <v>1.7906677329156299E-2</v>
+      </c>
+      <c r="M103">
+        <v>1</v>
+      </c>
+      <c r="N103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>538</v>
       </c>
@@ -3158,8 +5040,26 @@
       <c r="H104">
         <v>1.4547859349066199E-2</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I104">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="J104">
+        <v>7.02728368926306E-2</v>
+      </c>
+      <c r="K104">
+        <v>0.95714285714285696</v>
+      </c>
+      <c r="L104">
+        <v>3.04910677972993E-2</v>
+      </c>
+      <c r="M104">
+        <v>0.977443609022556</v>
+      </c>
+      <c r="N104">
+        <v>1.60479304196312E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>538</v>
       </c>
@@ -3184,8 +5084,26 @@
       <c r="H105">
         <v>1.52455338986496E-2</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I105">
+        <v>0.86666666666666703</v>
+      </c>
+      <c r="J105">
+        <v>6.9388866648871103E-2</v>
+      </c>
+      <c r="K105">
+        <v>0.94464285714285701</v>
+      </c>
+      <c r="L105">
+        <v>2.2658174179374199E-2</v>
+      </c>
+      <c r="M105">
+        <v>0.977443609022556</v>
+      </c>
+      <c r="N105">
+        <v>1.60479304196312E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>538</v>
       </c>
@@ -3210,8 +5128,26 @@
       <c r="H106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I106">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="J106">
+        <v>5.69275042553311E-2</v>
+      </c>
+      <c r="K106">
+        <v>0.94285714285714295</v>
+      </c>
+      <c r="L106">
+        <v>4.3643578047198497E-2</v>
+      </c>
+      <c r="M106">
+        <v>1</v>
+      </c>
+      <c r="N106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>538</v>
       </c>
@@ -3236,8 +5172,26 @@
       <c r="H107">
         <v>2.8178096139392001E-2</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I107">
+        <v>0.75</v>
+      </c>
+      <c r="J107">
+        <v>0.103189864561148</v>
+      </c>
+      <c r="K107">
+        <v>0.94464285714285701</v>
+      </c>
+      <c r="L107">
+        <v>2.2658174179374199E-2</v>
+      </c>
+      <c r="M107">
+        <v>0.95582706766917302</v>
+      </c>
+      <c r="N107">
+        <v>2.2852501534883302E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>538</v>
       </c>
@@ -3262,8 +5216,26 @@
       <c r="H108">
         <v>1.77476803760424E-2</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>1</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+      <c r="M108">
+        <v>0.971804511278195</v>
+      </c>
+      <c r="N108">
+        <v>1.51546198276288E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>538</v>
       </c>
@@ -3288,8 +5260,26 @@
       <c r="H109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>1</v>
+      </c>
+      <c r="L109">
+        <v>0</v>
+      </c>
+      <c r="M109">
+        <v>0.5</v>
+      </c>
+      <c r="N109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>538</v>
       </c>
@@ -3314,8 +5304,26 @@
       <c r="H110">
         <v>8.1325006079044204E-3</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I110">
+        <v>0.88333333333333297</v>
+      </c>
+      <c r="J110">
+        <v>6.1111111111111102E-2</v>
+      </c>
+      <c r="K110">
+        <v>0.97142857142857097</v>
+      </c>
+      <c r="L110">
+        <v>1.9047619047619101E-2</v>
+      </c>
+      <c r="M110">
+        <v>0.98496240601503804</v>
+      </c>
+      <c r="N110">
+        <v>1.00250626566416E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>538</v>
       </c>
@@ -3340,8 +5348,26 @@
       <c r="H111">
         <v>1.4285714285714299E-2</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I111">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="J111">
+        <v>7.02728368926306E-2</v>
+      </c>
+      <c r="K111">
+        <v>0.97142857142857097</v>
+      </c>
+      <c r="L111">
+        <v>1.9047619047619101E-2</v>
+      </c>
+      <c r="M111">
+        <v>0.99248120300751896</v>
+      </c>
+      <c r="N111">
+        <v>7.5187969924812E-3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>538</v>
       </c>
@@ -3366,8 +5392,26 @@
       <c r="H112">
         <v>5.96889244305216E-3</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I112">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="J112">
+        <v>5.69275042553311E-2</v>
+      </c>
+      <c r="K112">
+        <v>0.97321428571428603</v>
+      </c>
+      <c r="L112">
+        <v>1.7906677329156299E-2</v>
+      </c>
+      <c r="M112">
+        <v>0.98590225563909795</v>
+      </c>
+      <c r="N112">
+        <v>9.4245670153454107E-3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>538</v>
       </c>
@@ -3392,8 +5436,26 @@
       <c r="H113">
         <v>9.5238095238095004E-3</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I113">
+        <v>0.9</v>
+      </c>
+      <c r="J113">
+        <v>6.6666666666666693E-2</v>
+      </c>
+      <c r="K113">
+        <v>0.95714285714285696</v>
+      </c>
+      <c r="L113">
+        <v>2.1821789023599301E-2</v>
+      </c>
+      <c r="M113">
+        <v>0.99248120300751896</v>
+      </c>
+      <c r="N113">
+        <v>7.5187969924812E-3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>538</v>
       </c>
@@ -3418,8 +5480,26 @@
       <c r="H114">
         <v>1.15625414955027E-2</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I114">
+        <v>0.86666666666666703</v>
+      </c>
+      <c r="J114">
+        <v>6.9388866648871103E-2</v>
+      </c>
+      <c r="K114">
+        <v>0.95892857142857102</v>
+      </c>
+      <c r="L114">
+        <v>2.0968946373581598E-2</v>
+      </c>
+      <c r="M114">
+        <v>0.97838345864661702</v>
+      </c>
+      <c r="N114">
+        <v>1.10362875650429E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>538</v>
       </c>
@@ -3444,8 +5524,26 @@
       <c r="H115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I115">
+        <v>0.88333333333333297</v>
+      </c>
+      <c r="J115">
+        <v>6.1111111111111102E-2</v>
+      </c>
+      <c r="K115">
+        <v>0.97142857142857097</v>
+      </c>
+      <c r="L115">
+        <v>1.9047619047619101E-2</v>
+      </c>
+      <c r="M115">
+        <v>1</v>
+      </c>
+      <c r="N115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>538</v>
       </c>
@@ -3470,8 +5568,26 @@
       <c r="H116">
         <v>7.1428571428570897E-3</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I116">
+        <v>0.95</v>
+      </c>
+      <c r="J116">
+        <v>0.05</v>
+      </c>
+      <c r="K116">
+        <v>0.97142857142857097</v>
+      </c>
+      <c r="L116">
+        <v>1.9047619047619101E-2</v>
+      </c>
+      <c r="M116">
+        <v>0.99248120300751896</v>
+      </c>
+      <c r="N116">
+        <v>7.5187969924812E-3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>538</v>
       </c>
@@ -3496,8 +5612,26 @@
       <c r="H117">
         <v>7.8592469525151903E-3</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I117">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="J117">
+        <v>7.02728368926306E-2</v>
+      </c>
+      <c r="K117">
+        <v>0.98750000000000004</v>
+      </c>
+      <c r="L117">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="M117">
+        <v>0.98590225563909795</v>
+      </c>
+      <c r="N117">
+        <v>9.4245670153454107E-3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>538</v>
       </c>
@@ -3522,8 +5656,26 @@
       <c r="H118">
         <v>4.1666666666666996E-3</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I118">
+        <v>0.93333333333333302</v>
+      </c>
+      <c r="J118">
+        <v>4.4444444444444398E-2</v>
+      </c>
+      <c r="K118">
+        <v>0.95892857142857102</v>
+      </c>
+      <c r="L118">
+        <v>2.0968946373581598E-2</v>
+      </c>
+      <c r="M118">
+        <v>0.99342105263157898</v>
+      </c>
+      <c r="N118">
+        <v>6.5789473684210002E-3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>538</v>
       </c>
@@ -3548,8 +5700,26 @@
       <c r="H119">
         <v>7.1428571428570897E-3</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I119">
+        <v>0.93333333333333302</v>
+      </c>
+      <c r="J119">
+        <v>4.4444444444444398E-2</v>
+      </c>
+      <c r="K119">
+        <v>0.95714285714285696</v>
+      </c>
+      <c r="L119">
+        <v>3.04910677972993E-2</v>
+      </c>
+      <c r="M119">
+        <v>0.99248120300751896</v>
+      </c>
+      <c r="N119">
+        <v>7.5187969924812E-3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>538</v>
       </c>
@@ -3574,8 +5744,26 @@
       <c r="H120">
         <v>9.5238095238095004E-3</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I120">
+        <v>0.88333333333333297</v>
+      </c>
+      <c r="J120">
+        <v>6.1111111111111102E-2</v>
+      </c>
+      <c r="K120">
+        <v>0.97321428571428603</v>
+      </c>
+      <c r="L120">
+        <v>1.7906677329156299E-2</v>
+      </c>
+      <c r="M120">
+        <v>0.98496240601503804</v>
+      </c>
+      <c r="N120">
+        <v>1.50375939849624E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>538</v>
       </c>
@@ -3600,8 +5788,26 @@
       <c r="H121">
         <v>1.9585655046433399E-2</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I121">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="J121">
+        <v>5.69275042553311E-2</v>
+      </c>
+      <c r="K121">
+        <v>0.97142857142857097</v>
+      </c>
+      <c r="L121">
+        <v>1.9047619047619101E-2</v>
+      </c>
+      <c r="M121">
+        <v>0.977443609022556</v>
+      </c>
+      <c r="N121">
+        <v>1.60479304196312E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>626</v>
       </c>
@@ -3626,8 +5832,26 @@
       <c r="H122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I122">
+        <v>0.88333333333333297</v>
+      </c>
+      <c r="J122">
+        <v>6.1111111111111102E-2</v>
+      </c>
+      <c r="K122">
+        <v>0.94285714285714295</v>
+      </c>
+      <c r="L122">
+        <v>3.1586902765289603E-2</v>
+      </c>
+      <c r="M122">
+        <v>1</v>
+      </c>
+      <c r="N122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>626</v>
       </c>
@@ -3652,8 +5876,26 @@
       <c r="H123">
         <v>1.4547859349066199E-2</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I123">
+        <v>0.86666666666666703</v>
+      </c>
+      <c r="J123">
+        <v>6.9388866648871103E-2</v>
+      </c>
+      <c r="K123">
+        <v>0.94285714285714295</v>
+      </c>
+      <c r="L123">
+        <v>3.1586902765289603E-2</v>
+      </c>
+      <c r="M123">
+        <v>0.977443609022556</v>
+      </c>
+      <c r="N123">
+        <v>1.60479304196312E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>626</v>
       </c>
@@ -3678,8 +5920,26 @@
       <c r="H124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I124">
+        <v>0.93333333333333302</v>
+      </c>
+      <c r="J124">
+        <v>6.6666666666666693E-2</v>
+      </c>
+      <c r="K124">
+        <v>0.95714285714285696</v>
+      </c>
+      <c r="L124">
+        <v>2.1821789023599301E-2</v>
+      </c>
+      <c r="M124">
+        <v>1</v>
+      </c>
+      <c r="N124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>626</v>
       </c>
@@ -3704,8 +5964,26 @@
       <c r="H125">
         <v>5.96889244305216E-3</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I125">
+        <v>0.93333333333333302</v>
+      </c>
+      <c r="J125">
+        <v>4.4444444444444398E-2</v>
+      </c>
+      <c r="K125">
+        <v>0.97321428571428603</v>
+      </c>
+      <c r="L125">
+        <v>1.7906677329156299E-2</v>
+      </c>
+      <c r="M125">
+        <v>0.98590225563909795</v>
+      </c>
+      <c r="N125">
+        <v>9.4245670153454107E-3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>626</v>
       </c>
@@ -3730,8 +6008,26 @@
       <c r="H126">
         <v>7.1428571428570897E-3</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I126">
+        <v>0.85</v>
+      </c>
+      <c r="J126">
+        <v>6.3098981620003006E-2</v>
+      </c>
+      <c r="K126">
+        <v>0.94285714285714295</v>
+      </c>
+      <c r="L126">
+        <v>3.1586902765289603E-2</v>
+      </c>
+      <c r="M126">
+        <v>0.99248120300751896</v>
+      </c>
+      <c r="N126">
+        <v>7.5187969924812E-3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>626</v>
       </c>
@@ -3756,8 +6052,26 @@
       <c r="H127">
         <v>2.1428571428571401E-2</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I127">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="J127">
+        <v>7.02728368926306E-2</v>
+      </c>
+      <c r="K127">
+        <v>0.97142857142857097</v>
+      </c>
+      <c r="L127">
+        <v>2.8571428571428598E-2</v>
+      </c>
+      <c r="M127">
+        <v>0.98496240601503804</v>
+      </c>
+      <c r="N127">
+        <v>1.50375939849624E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>626</v>
       </c>
@@ -3782,8 +6096,26 @@
       <c r="H128">
         <v>2.3710940086133302E-2</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128">
+        <v>1</v>
+      </c>
+      <c r="L128">
+        <v>0</v>
+      </c>
+      <c r="M128">
+        <v>0.97838345864661702</v>
+      </c>
+      <c r="N128">
+        <v>1.57298122940265E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>626</v>
       </c>
@@ -3808,8 +6140,26 @@
       <c r="H129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>1</v>
+      </c>
+      <c r="L129">
+        <v>0</v>
+      </c>
+      <c r="M129">
+        <v>0.5</v>
+      </c>
+      <c r="N129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>626</v>
       </c>
@@ -3834,8 +6184,26 @@
       <c r="H130">
         <v>7.1428571428570897E-3</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I130">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="J130">
+        <v>5.69275042553311E-2</v>
+      </c>
+      <c r="K130">
+        <v>0.97321428571428603</v>
+      </c>
+      <c r="L130">
+        <v>1.7906677329156299E-2</v>
+      </c>
+      <c r="M130">
+        <v>0.99248120300751896</v>
+      </c>
+      <c r="N130">
+        <v>7.5187969924812E-3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>626</v>
       </c>
@@ -3860,8 +6228,26 @@
       <c r="H131">
         <v>7.1428571428570897E-3</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I131">
+        <v>0.81666666666666698</v>
+      </c>
+      <c r="J131">
+        <v>7.6376261582597305E-2</v>
+      </c>
+      <c r="K131">
+        <v>0.95714285714285696</v>
+      </c>
+      <c r="L131">
+        <v>2.1821789023599301E-2</v>
+      </c>
+      <c r="M131">
+        <v>0.99248120300751896</v>
+      </c>
+      <c r="N131">
+        <v>7.5187969924812E-3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>626</v>
       </c>
@@ -3886,8 +6272,26 @@
       <c r="H132">
         <v>1.4285714285714299E-2</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I132">
+        <v>0.9</v>
+      </c>
+      <c r="J132">
+        <v>6.6666666666666693E-2</v>
+      </c>
+      <c r="K132">
+        <v>0.95892857142857102</v>
+      </c>
+      <c r="L132">
+        <v>2.0968946373581598E-2</v>
+      </c>
+      <c r="M132">
+        <v>0.99248120300751896</v>
+      </c>
+      <c r="N132">
+        <v>7.5187969924812E-3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>626</v>
       </c>
@@ -3912,8 +6316,26 @@
       <c r="H133">
         <v>8.3333333333333003E-3</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I133">
+        <v>0.95</v>
+      </c>
+      <c r="J133">
+        <v>0.05</v>
+      </c>
+      <c r="K133">
+        <v>0.96071428571428596</v>
+      </c>
+      <c r="L133">
+        <v>2.7380952380952402E-2</v>
+      </c>
+      <c r="M133">
+        <v>0.99342105263157898</v>
+      </c>
+      <c r="N133">
+        <v>6.5789473684210002E-3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>626</v>
       </c>
@@ -3938,8 +6360,26 @@
       <c r="H134">
         <v>1.06553345889663E-2</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I134">
+        <v>0.88333333333333297</v>
+      </c>
+      <c r="J134">
+        <v>6.1111111111111102E-2</v>
+      </c>
+      <c r="K134">
+        <v>0.97321428571428603</v>
+      </c>
+      <c r="L134">
+        <v>1.7906677329156299E-2</v>
+      </c>
+      <c r="M134">
+        <v>0.97838345864661702</v>
+      </c>
+      <c r="N134">
+        <v>1.10362875650429E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>626</v>
       </c>
@@ -3964,8 +6404,26 @@
       <c r="H135">
         <v>9.7384057077841008E-3</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I135">
+        <v>0.9</v>
+      </c>
+      <c r="J135">
+        <v>6.6666666666666693E-2</v>
+      </c>
+      <c r="K135">
+        <v>0.94464285714285701</v>
+      </c>
+      <c r="L135">
+        <v>3.1095137825259501E-2</v>
+      </c>
+      <c r="M135">
+        <v>0.97838345864661702</v>
+      </c>
+      <c r="N135">
+        <v>1.10362875650429E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>626</v>
       </c>
@@ -3990,8 +6448,26 @@
       <c r="H136">
         <v>2.1428571428571401E-2</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I136">
+        <v>0.9</v>
+      </c>
+      <c r="J136">
+        <v>6.6666666666666693E-2</v>
+      </c>
+      <c r="K136">
+        <v>0.95892857142857102</v>
+      </c>
+      <c r="L136">
+        <v>2.9886643358650499E-2</v>
+      </c>
+      <c r="M136">
+        <v>0.977443609022556</v>
+      </c>
+      <c r="N136">
+        <v>2.2556390977443601E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>626</v>
       </c>
@@ -4016,8 +6492,26 @@
       <c r="H137">
         <v>9.5238095238094605E-3</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I137">
+        <v>0.88333333333333297</v>
+      </c>
+      <c r="J137">
+        <v>6.1111111111111102E-2</v>
+      </c>
+      <c r="K137">
+        <v>0.97142857142857097</v>
+      </c>
+      <c r="L137">
+        <v>1.9047619047619101E-2</v>
+      </c>
+      <c r="M137">
+        <v>0.98496240601503804</v>
+      </c>
+      <c r="N137">
+        <v>1.00250626566416E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>626</v>
       </c>
@@ -4042,8 +6536,26 @@
       <c r="H138">
         <v>8.1325006079044204E-3</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I138">
+        <v>0.86666666666666703</v>
+      </c>
+      <c r="J138">
+        <v>6.9388866648871103E-2</v>
+      </c>
+      <c r="K138">
+        <v>0.95714285714285696</v>
+      </c>
+      <c r="L138">
+        <v>2.1821789023599301E-2</v>
+      </c>
+      <c r="M138">
+        <v>0.98496240601503804</v>
+      </c>
+      <c r="N138">
+        <v>1.00250626566416E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>626</v>
       </c>
@@ -4068,8 +6580,26 @@
       <c r="H139">
         <v>9.5238095238094605E-3</v>
       </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I139">
+        <v>0.86666666666666703</v>
+      </c>
+      <c r="J139">
+        <v>6.9388866648871103E-2</v>
+      </c>
+      <c r="K139">
+        <v>0.95714285714285696</v>
+      </c>
+      <c r="L139">
+        <v>2.1821789023599301E-2</v>
+      </c>
+      <c r="M139">
+        <v>0.98496240601503804</v>
+      </c>
+      <c r="N139">
+        <v>1.00250626566416E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>626</v>
       </c>
@@ -4094,8 +6624,26 @@
       <c r="H140">
         <v>1.5163975241496401E-2</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I140">
+        <v>0.86666666666666703</v>
+      </c>
+      <c r="J140">
+        <v>6.9388866648871103E-2</v>
+      </c>
+      <c r="K140">
+        <v>0.95892857142857102</v>
+      </c>
+      <c r="L140">
+        <v>2.0968946373581598E-2</v>
+      </c>
+      <c r="M140">
+        <v>0.97086466165413499</v>
+      </c>
+      <c r="N140">
+        <v>1.6365862013294399E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>626</v>
       </c>
@@ -4120,8 +6668,26 @@
       <c r="H141">
         <v>4.1666666666666996E-3</v>
       </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I141">
+        <v>0.93333333333333302</v>
+      </c>
+      <c r="J141">
+        <v>4.4444444444444398E-2</v>
+      </c>
+      <c r="K141">
+        <v>0.95892857142857102</v>
+      </c>
+      <c r="L141">
+        <v>2.0968946373581598E-2</v>
+      </c>
+      <c r="M141">
+        <v>0.99342105263157898</v>
+      </c>
+      <c r="N141">
+        <v>6.5789473684210002E-3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>714</v>
       </c>
@@ -4146,8 +6712,26 @@
       <c r="H142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I142">
+        <v>0.88333333333333297</v>
+      </c>
+      <c r="J142">
+        <v>6.1111111111111102E-2</v>
+      </c>
+      <c r="K142">
+        <v>0.97321428571428603</v>
+      </c>
+      <c r="L142">
+        <v>1.7906677329156299E-2</v>
+      </c>
+      <c r="M142">
+        <v>1</v>
+      </c>
+      <c r="N142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>714</v>
       </c>
@@ -4172,8 +6756,26 @@
       <c r="H143">
         <v>8.3333333333333003E-3</v>
       </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I143">
+        <v>0.9</v>
+      </c>
+      <c r="J143">
+        <v>5.0917507721731502E-2</v>
+      </c>
+      <c r="K143">
+        <v>0.95892857142857102</v>
+      </c>
+      <c r="L143">
+        <v>2.0968946373581598E-2</v>
+      </c>
+      <c r="M143">
+        <v>0.98684210526315796</v>
+      </c>
+      <c r="N143">
+        <v>1.3157894736842099E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>714</v>
       </c>
@@ -4198,8 +6800,26 @@
       <c r="H144">
         <v>1.12519419672681E-2</v>
       </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I144">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="J144">
+        <v>7.02728368926306E-2</v>
+      </c>
+      <c r="K144">
+        <v>0.97142857142857097</v>
+      </c>
+      <c r="L144">
+        <v>1.9047619047619101E-2</v>
+      </c>
+      <c r="M144">
+        <v>0.977443609022556</v>
+      </c>
+      <c r="N144">
+        <v>1.60479304196312E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>714</v>
       </c>
@@ -4224,8 +6844,26 @@
       <c r="H145">
         <v>7.1428571428570897E-3</v>
       </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I145">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="J145">
+        <v>5.69275042553311E-2</v>
+      </c>
+      <c r="K145">
+        <v>0.95714285714285696</v>
+      </c>
+      <c r="L145">
+        <v>2.1821789023599301E-2</v>
+      </c>
+      <c r="M145">
+        <v>0.99248120300751896</v>
+      </c>
+      <c r="N145">
+        <v>7.5187969924812E-3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>714</v>
       </c>
@@ -4250,8 +6888,26 @@
       <c r="H146">
         <v>7.1428571428570897E-3</v>
       </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I146">
+        <v>0.88333333333333297</v>
+      </c>
+      <c r="J146">
+        <v>6.1111111111111102E-2</v>
+      </c>
+      <c r="K146">
+        <v>0.97142857142857097</v>
+      </c>
+      <c r="L146">
+        <v>1.9047619047619101E-2</v>
+      </c>
+      <c r="M146">
+        <v>0.99248120300751896</v>
+      </c>
+      <c r="N146">
+        <v>7.5187969924812E-3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>714</v>
       </c>
@@ -4276,8 +6932,26 @@
       <c r="H147">
         <v>9.5238095238094605E-3</v>
       </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I147">
+        <v>0.81666666666666698</v>
+      </c>
+      <c r="J147">
+        <v>8.0315734971116506E-2</v>
+      </c>
+      <c r="K147">
+        <v>0.97142857142857097</v>
+      </c>
+      <c r="L147">
+        <v>1.9047619047619101E-2</v>
+      </c>
+      <c r="M147">
+        <v>0.98496240601503804</v>
+      </c>
+      <c r="N147">
+        <v>1.00250626566416E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>714</v>
       </c>
@@ -4302,8 +6976,26 @@
       <c r="H148">
         <v>1.5163975241496401E-2</v>
       </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <v>1</v>
+      </c>
+      <c r="L148">
+        <v>0</v>
+      </c>
+      <c r="M148">
+        <v>0.97838345864661702</v>
+      </c>
+      <c r="N148">
+        <v>1.10362875650429E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>714</v>
       </c>
@@ -4328,8 +7020,26 @@
       <c r="H149">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>1</v>
+      </c>
+      <c r="L149">
+        <v>0</v>
+      </c>
+      <c r="M149">
+        <v>0.5</v>
+      </c>
+      <c r="N149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>714</v>
       </c>
@@ -4354,8 +7064,26 @@
       <c r="H150">
         <v>4.7619047619047996E-3</v>
       </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I150">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="J150">
+        <v>5.69275042553311E-2</v>
+      </c>
+      <c r="K150">
+        <v>0.98571428571428599</v>
+      </c>
+      <c r="L150">
+        <v>1.4285714285714299E-2</v>
+      </c>
+      <c r="M150">
+        <v>0.99248120300751896</v>
+      </c>
+      <c r="N150">
+        <v>7.5187969924812E-3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>714</v>
       </c>
@@ -4380,8 +7108,26 @@
       <c r="H151">
         <v>7.8592469525151903E-3</v>
       </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I151">
+        <v>0.85</v>
+      </c>
+      <c r="J151">
+        <v>6.3098981620003006E-2</v>
+      </c>
+      <c r="K151">
+        <v>0.98571428571428599</v>
+      </c>
+      <c r="L151">
+        <v>1.4285714285714299E-2</v>
+      </c>
+      <c r="M151">
+        <v>0.98590225563909795</v>
+      </c>
+      <c r="N151">
+        <v>9.4245670153454107E-3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>714</v>
       </c>
@@ -4406,8 +7152,26 @@
       <c r="H152">
         <v>2.84118393503189E-2</v>
       </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I152">
+        <v>0.9</v>
+      </c>
+      <c r="J152">
+        <v>6.6666666666666693E-2</v>
+      </c>
+      <c r="K152">
+        <v>0.95892857142857102</v>
+      </c>
+      <c r="L152">
+        <v>2.9886643358650499E-2</v>
+      </c>
+      <c r="M152">
+        <v>0.97838345864661702</v>
+      </c>
+      <c r="N152">
+        <v>1.57298122940265E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>714</v>
       </c>
@@ -4432,8 +7196,26 @@
       <c r="H153">
         <v>7.1428571428570897E-3</v>
       </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I153">
+        <v>0.88333333333333297</v>
+      </c>
+      <c r="J153">
+        <v>6.1111111111111102E-2</v>
+      </c>
+      <c r="K153">
+        <v>0.98571428571428599</v>
+      </c>
+      <c r="L153">
+        <v>1.4285714285714299E-2</v>
+      </c>
+      <c r="M153">
+        <v>0.99248120300751896</v>
+      </c>
+      <c r="N153">
+        <v>7.5187969924812E-3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>714</v>
       </c>
@@ -4458,8 +7240,26 @@
       <c r="H154">
         <v>4.7619047619047996E-3</v>
       </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I154">
+        <v>0.86666666666666703</v>
+      </c>
+      <c r="J154">
+        <v>6.9388866648871103E-2</v>
+      </c>
+      <c r="K154">
+        <v>0.97142857142857097</v>
+      </c>
+      <c r="L154">
+        <v>1.9047619047619101E-2</v>
+      </c>
+      <c r="M154">
+        <v>0.99248120300751896</v>
+      </c>
+      <c r="N154">
+        <v>7.5187969924812E-3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>714</v>
       </c>
@@ -4484,8 +7284,26 @@
       <c r="H155">
         <v>1.03555463100792E-2</v>
       </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I155">
+        <v>0.93333333333333302</v>
+      </c>
+      <c r="J155">
+        <v>4.4444444444444398E-2</v>
+      </c>
+      <c r="K155">
+        <v>0.98571428571428599</v>
+      </c>
+      <c r="L155">
+        <v>1.4285714285714299E-2</v>
+      </c>
+      <c r="M155">
+        <v>0.97932330827067704</v>
+      </c>
+      <c r="N155">
+        <v>1.44110275689223E-2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>714</v>
       </c>
@@ -4510,8 +7328,26 @@
       <c r="H156">
         <v>1.4547859349066199E-2</v>
       </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I156">
+        <v>0.9</v>
+      </c>
+      <c r="J156">
+        <v>6.6666666666666693E-2</v>
+      </c>
+      <c r="K156">
+        <v>0.95714285714285696</v>
+      </c>
+      <c r="L156">
+        <v>2.1821789023599301E-2</v>
+      </c>
+      <c r="M156">
+        <v>0.977443609022556</v>
+      </c>
+      <c r="N156">
+        <v>1.60479304196312E-2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>714</v>
       </c>
@@ -4536,8 +7372,26 @@
       <c r="H157">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I157">
+        <v>0.81666666666666698</v>
+      </c>
+      <c r="J157">
+        <v>7.6376261582597305E-2</v>
+      </c>
+      <c r="K157">
+        <v>0.97142857142857097</v>
+      </c>
+      <c r="L157">
+        <v>1.9047619047619101E-2</v>
+      </c>
+      <c r="M157">
+        <v>1</v>
+      </c>
+      <c r="N157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>714</v>
       </c>
@@ -4562,8 +7416,26 @@
       <c r="H158">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I158">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="J158">
+        <v>7.02728368926306E-2</v>
+      </c>
+      <c r="K158">
+        <v>1</v>
+      </c>
+      <c r="L158">
+        <v>0</v>
+      </c>
+      <c r="M158">
+        <v>1</v>
+      </c>
+      <c r="N158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>714</v>
       </c>
@@ -4588,8 +7460,26 @@
       <c r="H159">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I159">
+        <v>0.88333333333333297</v>
+      </c>
+      <c r="J159">
+        <v>6.1111111111111102E-2</v>
+      </c>
+      <c r="K159">
+        <v>0.97142857142857097</v>
+      </c>
+      <c r="L159">
+        <v>1.9047619047619101E-2</v>
+      </c>
+      <c r="M159">
+        <v>1</v>
+      </c>
+      <c r="N159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>714</v>
       </c>
@@ -4614,8 +7504,26 @@
       <c r="H160">
         <v>1.4285714285714299E-2</v>
       </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I160">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="J160">
+        <v>5.69275042553311E-2</v>
+      </c>
+      <c r="K160">
+        <v>0.98571428571428599</v>
+      </c>
+      <c r="L160">
+        <v>1.4285714285714299E-2</v>
+      </c>
+      <c r="M160">
+        <v>0.99248120300751896</v>
+      </c>
+      <c r="N160">
+        <v>7.5187969924812E-3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>714</v>
       </c>
@@ -4640,8 +7548,26 @@
       <c r="H161">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I161">
+        <v>0.86666666666666703</v>
+      </c>
+      <c r="J161">
+        <v>6.9388866648871103E-2</v>
+      </c>
+      <c r="K161">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="L161">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M161">
+        <v>1</v>
+      </c>
+      <c r="N161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>803</v>
       </c>
@@ -4666,8 +7592,26 @@
       <c r="H162">
         <v>5.96889244305216E-3</v>
       </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I162">
+        <v>0.93333333333333302</v>
+      </c>
+      <c r="J162">
+        <v>4.4444444444444398E-2</v>
+      </c>
+      <c r="K162">
+        <v>0.97321428571428603</v>
+      </c>
+      <c r="L162">
+        <v>1.7906677329156299E-2</v>
+      </c>
+      <c r="M162">
+        <v>0.98590225563909795</v>
+      </c>
+      <c r="N162">
+        <v>9.4245670153454107E-3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>803</v>
       </c>
@@ -4692,8 +7636,26 @@
       <c r="H163">
         <v>1.62650012158089E-2</v>
       </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I163">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="J163">
+        <v>5.69275042553311E-2</v>
+      </c>
+      <c r="K163">
+        <v>0.97142857142857097</v>
+      </c>
+      <c r="L163">
+        <v>1.9047619047619101E-2</v>
+      </c>
+      <c r="M163">
+        <v>0.98496240601503804</v>
+      </c>
+      <c r="N163">
+        <v>1.00250626566416E-2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>803</v>
       </c>
@@ -4718,8 +7680,26 @@
       <c r="H164">
         <v>1.4285714285714299E-2</v>
       </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I164">
+        <v>0.9</v>
+      </c>
+      <c r="J164">
+        <v>6.6666666666666693E-2</v>
+      </c>
+      <c r="K164">
+        <v>0.96071428571428596</v>
+      </c>
+      <c r="L164">
+        <v>2.7380952380952402E-2</v>
+      </c>
+      <c r="M164">
+        <v>0.98496240601503804</v>
+      </c>
+      <c r="N164">
+        <v>1.50375939849624E-2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>803</v>
       </c>
@@ -4744,8 +7724,26 @@
       <c r="H165">
         <v>9.5238095238095004E-3</v>
       </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I165">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="J165">
+        <v>5.69275042553311E-2</v>
+      </c>
+      <c r="K165">
+        <v>0.95714285714285696</v>
+      </c>
+      <c r="L165">
+        <v>3.04910677972993E-2</v>
+      </c>
+      <c r="M165">
+        <v>0.99248120300751896</v>
+      </c>
+      <c r="N165">
+        <v>7.5187969924812E-3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>803</v>
       </c>
@@ -4770,8 +7768,26 @@
       <c r="H166">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I166">
+        <v>0.93333333333333302</v>
+      </c>
+      <c r="J166">
+        <v>6.6666666666666693E-2</v>
+      </c>
+      <c r="K166">
+        <v>0.97321428571428603</v>
+      </c>
+      <c r="L166">
+        <v>1.7906677329156299E-2</v>
+      </c>
+      <c r="M166">
+        <v>1</v>
+      </c>
+      <c r="N166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>803</v>
       </c>
@@ -4796,8 +7812,26 @@
       <c r="H167">
         <v>1.2295185226055201E-2</v>
       </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I167">
+        <v>0.81666666666666698</v>
+      </c>
+      <c r="J167">
+        <v>0.106718737290547</v>
+      </c>
+      <c r="K167">
+        <v>0.95714285714285696</v>
+      </c>
+      <c r="L167">
+        <v>3.04910677972993E-2</v>
+      </c>
+      <c r="M167">
+        <v>0.977443609022556</v>
+      </c>
+      <c r="N167">
+        <v>1.14851521176838E-2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>803</v>
       </c>
@@ -4822,8 +7856,26 @@
       <c r="H168">
         <v>9.9622144528834708E-3</v>
       </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I168">
+        <v>0</v>
+      </c>
+      <c r="J168">
+        <v>0</v>
+      </c>
+      <c r="K168">
+        <v>1</v>
+      </c>
+      <c r="L168">
+        <v>0</v>
+      </c>
+      <c r="M168">
+        <v>0.98590225563909795</v>
+      </c>
+      <c r="N168">
+        <v>9.4245670153454107E-3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>803</v>
       </c>
@@ -4848,8 +7900,26 @@
       <c r="H169">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I169">
+        <v>0</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
+      </c>
+      <c r="K169">
+        <v>1</v>
+      </c>
+      <c r="L169">
+        <v>0</v>
+      </c>
+      <c r="M169">
+        <v>0.5</v>
+      </c>
+      <c r="N169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>803</v>
       </c>
@@ -4874,8 +7944,26 @@
       <c r="H170">
         <v>9.5238095238095004E-3</v>
       </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I170">
+        <v>0.85</v>
+      </c>
+      <c r="J170">
+        <v>0.106718737290547</v>
+      </c>
+      <c r="K170">
+        <v>0.94821428571428601</v>
+      </c>
+      <c r="L170">
+        <v>3.8617146626925197E-2</v>
+      </c>
+      <c r="M170">
+        <v>0.99248120300751896</v>
+      </c>
+      <c r="N170">
+        <v>7.5187969924812E-3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>803</v>
       </c>
@@ -4900,8 +7988,26 @@
       <c r="H171">
         <v>7.1428571428570897E-3</v>
       </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I171">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="J171">
+        <v>5.69275042553311E-2</v>
+      </c>
+      <c r="K171">
+        <v>0.97321428571428603</v>
+      </c>
+      <c r="L171">
+        <v>1.7906677329156299E-2</v>
+      </c>
+      <c r="M171">
+        <v>0.99248120300751896</v>
+      </c>
+      <c r="N171">
+        <v>7.5187969924812E-3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>803</v>
       </c>
@@ -4926,8 +8032,26 @@
       <c r="H172">
         <v>7.1428571428570897E-3</v>
       </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I172">
+        <v>0.95</v>
+      </c>
+      <c r="J172">
+        <v>0.05</v>
+      </c>
+      <c r="K172">
+        <v>0.97321428571428603</v>
+      </c>
+      <c r="L172">
+        <v>1.7906677329156299E-2</v>
+      </c>
+      <c r="M172">
+        <v>0.99248120300751896</v>
+      </c>
+      <c r="N172">
+        <v>7.5187969924812E-3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>803</v>
       </c>
@@ -4952,8 +8076,26 @@
       <c r="H173">
         <v>4.7619047619047996E-3</v>
       </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I173">
+        <v>0.93333333333333302</v>
+      </c>
+      <c r="J173">
+        <v>4.4444444444444398E-2</v>
+      </c>
+      <c r="K173">
+        <v>0.97142857142857097</v>
+      </c>
+      <c r="L173">
+        <v>1.9047619047619101E-2</v>
+      </c>
+      <c r="M173">
+        <v>0.99248120300751896</v>
+      </c>
+      <c r="N173">
+        <v>7.5187969924812E-3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>803</v>
       </c>
@@ -4978,8 +8120,26 @@
       <c r="H174">
         <v>5.96889244305216E-3</v>
       </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I174">
+        <v>0.93333333333333302</v>
+      </c>
+      <c r="J174">
+        <v>4.4444444444444398E-2</v>
+      </c>
+      <c r="K174">
+        <v>0.98571428571428599</v>
+      </c>
+      <c r="L174">
+        <v>1.4285714285714299E-2</v>
+      </c>
+      <c r="M174">
+        <v>0.98590225563909795</v>
+      </c>
+      <c r="N174">
+        <v>9.4245670153454107E-3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>803</v>
       </c>
@@ -5004,8 +8164,26 @@
       <c r="H175">
         <v>1.4285714285714299E-2</v>
       </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I175">
+        <v>0.88333333333333297</v>
+      </c>
+      <c r="J175">
+        <v>6.1111111111111102E-2</v>
+      </c>
+      <c r="K175">
+        <v>0.95714285714285696</v>
+      </c>
+      <c r="L175">
+        <v>4.2857142857142899E-2</v>
+      </c>
+      <c r="M175">
+        <v>0.98496240601503804</v>
+      </c>
+      <c r="N175">
+        <v>1.50375939849624E-2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>803</v>
       </c>
@@ -5030,8 +8208,26 @@
       <c r="H176">
         <v>7.8592469525151903E-3</v>
       </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I176">
+        <v>0.88333333333333297</v>
+      </c>
+      <c r="J176">
+        <v>6.1111111111111102E-2</v>
+      </c>
+      <c r="K176">
+        <v>0.98571428571428599</v>
+      </c>
+      <c r="L176">
+        <v>1.4285714285714299E-2</v>
+      </c>
+      <c r="M176">
+        <v>0.98590225563909795</v>
+      </c>
+      <c r="N176">
+        <v>9.4245670153454107E-3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>803</v>
       </c>
@@ -5056,8 +8252,26 @@
       <c r="H177">
         <v>1.03555463100792E-2</v>
       </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I177">
+        <v>0.96666666666666701</v>
+      </c>
+      <c r="J177">
+        <v>3.3333333333333298E-2</v>
+      </c>
+      <c r="K177">
+        <v>0.95892857142857102</v>
+      </c>
+      <c r="L177">
+        <v>2.0968946373581598E-2</v>
+      </c>
+      <c r="M177">
+        <v>0.98590225563909795</v>
+      </c>
+      <c r="N177">
+        <v>9.4245670153454107E-3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>803</v>
       </c>
@@ -5082,8 +8296,26 @@
       <c r="H178">
         <v>3.3143830187017602E-2</v>
       </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I178">
+        <v>0.86666666666666703</v>
+      </c>
+      <c r="J178">
+        <v>7.3702773119008899E-2</v>
+      </c>
+      <c r="K178">
+        <v>0.96071428571428596</v>
+      </c>
+      <c r="L178">
+        <v>2.7380952380952402E-2</v>
+      </c>
+      <c r="M178">
+        <v>0.97274436090225602</v>
+      </c>
+      <c r="N178">
+        <v>2.0324814014171199E-2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>803</v>
       </c>
@@ -5108,8 +8340,26 @@
       <c r="H179">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I179">
+        <v>0.85</v>
+      </c>
+      <c r="J179">
+        <v>7.6376261582597305E-2</v>
+      </c>
+      <c r="K179">
+        <v>0.97321428571428603</v>
+      </c>
+      <c r="L179">
+        <v>1.7906677329156299E-2</v>
+      </c>
+      <c r="M179">
+        <v>1</v>
+      </c>
+      <c r="N179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>803</v>
       </c>
@@ -5134,8 +8384,26 @@
       <c r="H180">
         <v>7.1428571428570897E-3</v>
       </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I180">
+        <v>0.9</v>
+      </c>
+      <c r="J180">
+        <v>0.1</v>
+      </c>
+      <c r="K180">
+        <v>0.97142857142857097</v>
+      </c>
+      <c r="L180">
+        <v>1.9047619047619101E-2</v>
+      </c>
+      <c r="M180">
+        <v>0.99248120300751896</v>
+      </c>
+      <c r="N180">
+        <v>7.5187969924812E-3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>803</v>
       </c>
@@ -5160,8 +8428,26 @@
       <c r="H181">
         <v>7.1428571428570897E-3</v>
       </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I181">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="J181">
+        <v>7.02728368926306E-2</v>
+      </c>
+      <c r="K181">
+        <v>0.97142857142857097</v>
+      </c>
+      <c r="L181">
+        <v>1.9047619047619101E-2</v>
+      </c>
+      <c r="M181">
+        <v>0.99248120300751896</v>
+      </c>
+      <c r="N181">
+        <v>7.5187969924812E-3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>98</v>
       </c>
@@ -5186,8 +8472,26 @@
       <c r="H182">
         <v>5.5555555555555896E-3</v>
       </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I182">
+        <v>0.93333333333333302</v>
+      </c>
+      <c r="J182">
+        <v>4.4444444444444398E-2</v>
+      </c>
+      <c r="K182">
+        <v>0.97321428571428603</v>
+      </c>
+      <c r="L182">
+        <v>1.7906677329156299E-2</v>
+      </c>
+      <c r="M182">
+        <v>0.98684210526315796</v>
+      </c>
+      <c r="N182">
+        <v>8.7719298245613302E-3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>98</v>
       </c>
@@ -5212,8 +8516,26 @@
       <c r="H183">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I183">
+        <v>0.95</v>
+      </c>
+      <c r="J183">
+        <v>0.05</v>
+      </c>
+      <c r="K183">
+        <v>0.98571428571428599</v>
+      </c>
+      <c r="L183">
+        <v>1.4285714285714299E-2</v>
+      </c>
+      <c r="M183">
+        <v>1</v>
+      </c>
+      <c r="N183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>98</v>
       </c>
@@ -5238,8 +8560,26 @@
       <c r="H184">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I184">
+        <v>0.96666666666666701</v>
+      </c>
+      <c r="J184">
+        <v>3.3333333333333298E-2</v>
+      </c>
+      <c r="K184">
+        <v>0.97142857142857097</v>
+      </c>
+      <c r="L184">
+        <v>1.9047619047619101E-2</v>
+      </c>
+      <c r="M184">
+        <v>1</v>
+      </c>
+      <c r="N184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>98</v>
       </c>
@@ -5264,8 +8604,26 @@
       <c r="H185">
         <v>2.18217890235992E-2</v>
       </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I185">
+        <v>0.86666666666666703</v>
+      </c>
+      <c r="J185">
+        <v>6.9388866648871103E-2</v>
+      </c>
+      <c r="K185">
+        <v>0.94285714285714295</v>
+      </c>
+      <c r="L185">
+        <v>4.3643578047198497E-2</v>
+      </c>
+      <c r="M185">
+        <v>0.96992481203007497</v>
+      </c>
+      <c r="N185">
+        <v>2.2970304235367601E-2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>98</v>
       </c>
@@ -5290,8 +8648,26 @@
       <c r="H186">
         <v>7.1428571428570897E-3</v>
       </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I186">
+        <v>0.86666666666666703</v>
+      </c>
+      <c r="J186">
+        <v>6.9388866648871103E-2</v>
+      </c>
+      <c r="K186">
+        <v>0.95892857142857102</v>
+      </c>
+      <c r="L186">
+        <v>2.0968946373581598E-2</v>
+      </c>
+      <c r="M186">
+        <v>0.99248120300751896</v>
+      </c>
+      <c r="N186">
+        <v>7.5187969924812E-3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>98</v>
       </c>
@@ -5316,8 +8692,26 @@
       <c r="H187">
         <v>7.1428571428570897E-3</v>
       </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I187">
+        <v>0.88333333333333297</v>
+      </c>
+      <c r="J187">
+        <v>6.1111111111111102E-2</v>
+      </c>
+      <c r="K187">
+        <v>0.97321428571428603</v>
+      </c>
+      <c r="L187">
+        <v>1.7906677329156299E-2</v>
+      </c>
+      <c r="M187">
+        <v>0.99248120300751896</v>
+      </c>
+      <c r="N187">
+        <v>7.5187969924812E-3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>98</v>
       </c>
@@ -5342,8 +8736,26 @@
       <c r="H188">
         <v>4.9569830062308501E-2</v>
       </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I188">
+        <v>0</v>
+      </c>
+      <c r="J188">
+        <v>0</v>
+      </c>
+      <c r="K188">
+        <v>1</v>
+      </c>
+      <c r="L188">
+        <v>0</v>
+      </c>
+      <c r="M188">
+        <v>0.929323308270677</v>
+      </c>
+      <c r="N188">
+        <v>4.8803209477643501E-2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>98</v>
       </c>
@@ -5368,8 +8780,26 @@
       <c r="H189">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I189">
+        <v>0</v>
+      </c>
+      <c r="J189">
+        <v>0</v>
+      </c>
+      <c r="K189">
+        <v>1</v>
+      </c>
+      <c r="L189">
+        <v>0</v>
+      </c>
+      <c r="M189">
+        <v>0.5</v>
+      </c>
+      <c r="N189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>98</v>
       </c>
@@ -5394,8 +8824,26 @@
       <c r="H190">
         <v>7.1428571428570897E-3</v>
       </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I190">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="J190">
+        <v>5.69275042553311E-2</v>
+      </c>
+      <c r="K190">
+        <v>0.97321428571428603</v>
+      </c>
+      <c r="L190">
+        <v>1.7906677329156299E-2</v>
+      </c>
+      <c r="M190">
+        <v>0.99248120300751896</v>
+      </c>
+      <c r="N190">
+        <v>7.5187969924812E-3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>98</v>
       </c>
@@ -5420,8 +8868,26 @@
       <c r="H191">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I191">
+        <v>0.96666666666666701</v>
+      </c>
+      <c r="J191">
+        <v>3.3333333333333298E-2</v>
+      </c>
+      <c r="K191">
+        <v>0.98571428571428599</v>
+      </c>
+      <c r="L191">
+        <v>1.4285714285714299E-2</v>
+      </c>
+      <c r="M191">
+        <v>1</v>
+      </c>
+      <c r="N191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>98</v>
       </c>
@@ -5446,8 +8912,26 @@
       <c r="H192">
         <v>9.5238095238095004E-3</v>
       </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I192">
+        <v>0.93333333333333302</v>
+      </c>
+      <c r="J192">
+        <v>4.4444444444444398E-2</v>
+      </c>
+      <c r="K192">
+        <v>0.97142857142857097</v>
+      </c>
+      <c r="L192">
+        <v>1.9047619047619101E-2</v>
+      </c>
+      <c r="M192">
+        <v>0.99248120300751896</v>
+      </c>
+      <c r="N192">
+        <v>7.5187969924812E-3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>98</v>
       </c>
@@ -5472,8 +8956,26 @@
       <c r="H193">
         <v>9.5238095238095004E-3</v>
       </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I193">
+        <v>0.9</v>
+      </c>
+      <c r="J193">
+        <v>6.6666666666666693E-2</v>
+      </c>
+      <c r="K193">
+        <v>0.97142857142857097</v>
+      </c>
+      <c r="L193">
+        <v>2.8571428571428598E-2</v>
+      </c>
+      <c r="M193">
+        <v>0.98496240601503804</v>
+      </c>
+      <c r="N193">
+        <v>1.50375939849624E-2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>98</v>
       </c>
@@ -5498,8 +9000,26 @@
       <c r="H194">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I194">
+        <v>0.81666666666666698</v>
+      </c>
+      <c r="J194">
+        <v>0.106718737290547</v>
+      </c>
+      <c r="K194">
+        <v>0.98571428571428599</v>
+      </c>
+      <c r="L194">
+        <v>1.4285714285714299E-2</v>
+      </c>
+      <c r="M194">
+        <v>1</v>
+      </c>
+      <c r="N194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>98</v>
       </c>
@@ -5524,8 +9044,26 @@
       <c r="H195">
         <v>1.30425225631308E-2</v>
       </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I195">
+        <v>0.96666666666666701</v>
+      </c>
+      <c r="J195">
+        <v>3.3333333333333298E-2</v>
+      </c>
+      <c r="K195">
+        <v>0.94464285714285701</v>
+      </c>
+      <c r="L195">
+        <v>3.1095137825259501E-2</v>
+      </c>
+      <c r="M195">
+        <v>0.96522556390977399</v>
+      </c>
+      <c r="N195">
+        <v>2.0593456678627602E-2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>98</v>
       </c>
@@ -5550,8 +9088,26 @@
       <c r="H196">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I196">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="J196">
+        <v>5.69275042553311E-2</v>
+      </c>
+      <c r="K196">
+        <v>0.98571428571428599</v>
+      </c>
+      <c r="L196">
+        <v>1.4285714285714299E-2</v>
+      </c>
+      <c r="M196">
+        <v>1</v>
+      </c>
+      <c r="N196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>98</v>
       </c>
@@ -5576,8 +9132,26 @@
       <c r="H197">
         <v>7.1428571428570897E-3</v>
       </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I197">
+        <v>0.96666666666666701</v>
+      </c>
+      <c r="J197">
+        <v>3.3333333333333298E-2</v>
+      </c>
+      <c r="K197">
+        <v>0.98571428571428599</v>
+      </c>
+      <c r="L197">
+        <v>1.4285714285714299E-2</v>
+      </c>
+      <c r="M197">
+        <v>0.99248120300751896</v>
+      </c>
+      <c r="N197">
+        <v>7.5187969924812E-3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>98</v>
       </c>
@@ -5602,8 +9176,26 @@
       <c r="H198">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I198">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="J198">
+        <v>5.69275042553311E-2</v>
+      </c>
+      <c r="K198">
+        <v>0.98750000000000004</v>
+      </c>
+      <c r="L198">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="M198">
+        <v>1</v>
+      </c>
+      <c r="N198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>98</v>
       </c>
@@ -5628,8 +9220,26 @@
       <c r="H199">
         <v>1.4285714285714299E-2</v>
       </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I199">
+        <v>0.93333333333333302</v>
+      </c>
+      <c r="J199">
+        <v>4.4444444444444398E-2</v>
+      </c>
+      <c r="K199">
+        <v>0.95714285714285696</v>
+      </c>
+      <c r="L199">
+        <v>4.2857142857142899E-2</v>
+      </c>
+      <c r="M199">
+        <v>0.98496240601503804</v>
+      </c>
+      <c r="N199">
+        <v>1.50375939849624E-2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>98</v>
       </c>
@@ -5654,8 +9264,26 @@
       <c r="H200">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I200">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="J200">
+        <v>5.69275042553311E-2</v>
+      </c>
+      <c r="K200">
+        <v>0.97321428571428603</v>
+      </c>
+      <c r="L200">
+        <v>1.7906677329156299E-2</v>
+      </c>
+      <c r="M200">
+        <v>1</v>
+      </c>
+      <c r="N200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>98</v>
       </c>
@@ -5678,6 +9306,24 @@
         <v>1</v>
       </c>
       <c r="H201">
+        <v>0</v>
+      </c>
+      <c r="I201">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="J201">
+        <v>5.69275042553311E-2</v>
+      </c>
+      <c r="K201">
+        <v>1</v>
+      </c>
+      <c r="L201">
+        <v>0</v>
+      </c>
+      <c r="M201">
+        <v>1</v>
+      </c>
+      <c r="N201">
         <v>0</v>
       </c>
     </row>
